--- a/PGA_Database.xlsx
+++ b/PGA_Database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NICK朱\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A981BF-2B9A-46C5-B521-FE103951C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>PLAYER NAME</t>
   </si>
@@ -199,9 +205,6 @@
     <t>Average_Putts_2021_RANK</t>
   </si>
   <si>
-    <t>BallStriking2020</t>
-  </si>
-  <si>
     <t>BallStriking2020_RANK</t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t>BallStriking2021_RANK</t>
-  </si>
-  <si>
-    <t>top10Fin_2020</t>
   </si>
   <si>
     <t>top10Fin_2020_RANK</t>
@@ -223,9 +223,6 @@
     <t>top10Fin_2021_RANK</t>
   </si>
   <si>
-    <t>Masters</t>
-  </si>
-  <si>
     <t>Masters_RANK</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>Current Ranking</t>
-  </si>
-  <si>
-    <t>Current RankingWorld</t>
   </si>
   <si>
     <t>Dustin Johnson</t>
@@ -429,16 +423,36 @@
   <si>
     <t>Jimmy Walker</t>
   </si>
+  <si>
+    <t>C.T. Pan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BallStriking2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top10Fin_2020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current RankingWorld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,8 +460,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -493,15 +514,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,9 +604,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,6 +656,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -784,14 +849,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BV66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AY52" workbookViewId="0">
+      <selection activeCell="BS66" sqref="BS66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:74">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,51 +1043,51 @@
         <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
       <c r="B2">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1032,19 +1099,19 @@
         <v>61</v>
       </c>
       <c r="F2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="G2">
         <v>95.5</v>
       </c>
       <c r="H2">
-        <v>0.469</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="I2">
         <v>11</v>
       </c>
       <c r="J2">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="K2">
         <v>17</v>
@@ -1056,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="N2">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="O2">
         <v>48</v>
@@ -1068,7 +1135,7 @@
         <v>148</v>
       </c>
       <c r="R2">
-        <v>0.612</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="S2">
         <v>11</v>
@@ -1086,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="X2">
-        <v>1.277</v>
+        <v>1.2769999999999999</v>
       </c>
       <c r="Y2">
         <v>22</v>
@@ -1146,7 +1213,7 @@
         <v>13.5</v>
       </c>
       <c r="AR2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS2">
         <v>81</v>
@@ -1158,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="AV2">
-        <v>70.23999999999999</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="AW2">
         <v>24</v>
@@ -1224,13 +1291,13 @@
         <v>14.5</v>
       </c>
       <c r="BR2">
-        <v>68.64699999999999</v>
+        <v>68.646999999999991</v>
       </c>
       <c r="BS2">
         <v>4.833333333333333</v>
       </c>
       <c r="BT2">
-        <v>3.353000000000009</v>
+        <v>3.3530000000000091</v>
       </c>
       <c r="BU2">
         <v>484.02</v>
@@ -1239,30 +1306,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E3">
         <v>101</v>
       </c>
       <c r="F3">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="G3">
         <v>18</v>
       </c>
       <c r="H3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -1274,37 +1341,37 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1.051</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="M3">
         <v>3</v>
       </c>
       <c r="N3">
-        <v>-0.031</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="O3">
         <v>112</v>
       </c>
       <c r="P3">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="Q3">
         <v>55.5</v>
       </c>
       <c r="R3">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="S3">
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="U3">
         <v>101</v>
       </c>
       <c r="V3">
-        <v>1.709</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -1322,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="AB3">
-        <v>300.4</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="AC3">
         <v>63</v>
@@ -1364,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="AP3">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="AQ3">
         <v>3</v>
@@ -1382,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="AV3">
-        <v>69.73999999999999</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="AW3">
         <v>33</v>
@@ -1418,7 +1485,7 @@
         <v>12.5</v>
       </c>
       <c r="BH3">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -1448,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="BR3">
-        <v>70.2045</v>
+        <v>70.204499999999996</v>
       </c>
       <c r="BS3">
         <v>14.75</v>
       </c>
       <c r="BT3">
-        <v>1.795500000000004</v>
+        <v>1.7955000000000041</v>
       </c>
       <c r="BU3">
         <v>453.66</v>
@@ -1463,66 +1530,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4">
-        <v>0.7559999999999999</v>
+        <v>0.75599999999999989</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E4">
         <v>3.5</v>
       </c>
       <c r="F4">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G4">
         <v>24</v>
       </c>
       <c r="H4">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I4">
         <v>56</v>
       </c>
       <c r="J4">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="K4">
         <v>54</v>
       </c>
       <c r="L4">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="M4">
         <v>12.5</v>
       </c>
       <c r="N4">
-        <v>0.479</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="O4">
         <v>22</v>
       </c>
       <c r="P4">
-        <v>-0.006999999999999999</v>
+        <v>-6.9999999999999993E-3</v>
       </c>
       <c r="Q4">
         <v>122</v>
       </c>
       <c r="R4">
-        <v>0.7559999999999999</v>
+        <v>0.75599999999999989</v>
       </c>
       <c r="S4">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="U4">
         <v>3.5</v>
@@ -1534,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1.664</v>
+        <v>1.6639999999999999</v>
       </c>
       <c r="Y4">
         <v>8</v>
       </c>
       <c r="Z4">
-        <v>307.6</v>
+        <v>307.60000000000002</v>
       </c>
       <c r="AA4">
         <v>22</v>
       </c>
       <c r="AB4">
-        <v>306.1</v>
+        <v>306.10000000000002</v>
       </c>
       <c r="AC4">
         <v>23.5</v>
@@ -1636,13 +1703,13 @@
         <v>150</v>
       </c>
       <c r="BF4">
-        <v>1.717</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="BG4">
         <v>8.5</v>
       </c>
       <c r="BH4">
-        <v>1.751</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="BI4">
         <v>73.5</v>
@@ -1672,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="BR4">
-        <v>69.81399999999999</v>
+        <v>69.813999999999993</v>
       </c>
       <c r="BS4">
         <v>13.5</v>
@@ -1687,30 +1754,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>1.039</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.144</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.04099999999999999</v>
+        <v>-4.0999999999999988E-2</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
       <c r="H5">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="I5">
         <v>44</v>
@@ -1722,13 +1789,13 @@
         <v>119</v>
       </c>
       <c r="L5">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="M5">
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.6579999999999999</v>
+        <v>0.65799999999999992</v>
       </c>
       <c r="O5">
         <v>10</v>
@@ -1740,31 +1807,31 @@
         <v>39</v>
       </c>
       <c r="R5">
-        <v>1.039</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>1.144</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>1.566</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="W5">
         <v>5</v>
       </c>
       <c r="X5">
-        <v>2.533</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>322.1</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1818,13 +1885,13 @@
         <v>19</v>
       </c>
       <c r="AR5">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AS5">
         <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>68.45999999999999</v>
+        <v>68.459999999999994</v>
       </c>
       <c r="AU5">
         <v>55</v>
@@ -1899,7 +1966,7 @@
         <v>70.61</v>
       </c>
       <c r="BS5">
-        <v>24.16666666666667</v>
+        <v>24.166666666666671</v>
       </c>
       <c r="BT5">
         <v>1.390000000000001</v>
@@ -1911,9 +1978,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>0.44</v>
@@ -1922,25 +1989,25 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E6">
         <v>48</v>
       </c>
       <c r="F6">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6">
         <v>93</v>
       </c>
       <c r="H6">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I6">
         <v>70.5</v>
       </c>
       <c r="J6">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1952,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>-0.099</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="O6">
         <v>128</v>
       </c>
       <c r="P6">
-        <v>-0.453</v>
+        <v>-0.45300000000000001</v>
       </c>
       <c r="Q6">
         <v>179</v>
@@ -1970,19 +2037,19 @@
         <v>19</v>
       </c>
       <c r="T6">
-        <v>0.262</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="U6">
         <v>48</v>
       </c>
       <c r="V6">
-        <v>1.231</v>
+        <v>1.2310000000000001</v>
       </c>
       <c r="W6">
         <v>14</v>
       </c>
       <c r="X6">
-        <v>1.187</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="Y6">
         <v>23</v>
@@ -1994,13 +2061,13 @@
         <v>98</v>
       </c>
       <c r="AB6">
-        <v>293.9</v>
+        <v>293.89999999999998</v>
       </c>
       <c r="AC6">
         <v>124</v>
       </c>
       <c r="AD6">
-        <v>65.54000000000001</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AE6">
         <v>31</v>
@@ -2036,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="AP6">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AQ6">
         <v>7.5</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="BF6">
-        <v>1.749</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="BG6">
         <v>61.5</v>
       </c>
       <c r="BH6">
-        <v>1.711</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="BI6">
         <v>14</v>
@@ -2120,13 +2187,13 @@
         <v>33.5</v>
       </c>
       <c r="BR6">
-        <v>71.407</v>
+        <v>71.406999999999996</v>
       </c>
       <c r="BS6">
         <v>123</v>
       </c>
       <c r="BT6">
-        <v>0.5930000000000035</v>
+        <v>0.59300000000000352</v>
       </c>
       <c r="BU6">
         <v>328.61</v>
@@ -2135,12 +2202,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2152,43 +2219,43 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G7">
         <v>37</v>
       </c>
       <c r="H7">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I7">
         <v>29</v>
       </c>
       <c r="J7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="K7">
         <v>37.5</v>
       </c>
       <c r="L7">
-        <v>0.529</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="M7">
         <v>25</v>
       </c>
       <c r="N7">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="O7">
         <v>33</v>
       </c>
       <c r="P7">
-        <v>0.759</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="Q7">
         <v>10</v>
       </c>
       <c r="R7">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -2206,19 +2273,19 @@
         <v>3</v>
       </c>
       <c r="X7">
-        <v>1.914</v>
+        <v>1.9139999999999999</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
       <c r="Z7">
-        <v>305.4</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="AA7">
         <v>30.5</v>
       </c>
       <c r="AB7">
-        <v>305.4</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="AC7">
         <v>28</v>
@@ -2284,7 +2351,7 @@
         <v>37</v>
       </c>
       <c r="AX7">
-        <v>66.48999999999999</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="AY7">
         <v>2</v>
@@ -2308,13 +2375,13 @@
         <v>3</v>
       </c>
       <c r="BF7">
-        <v>1.737</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="BG7">
         <v>36.5</v>
       </c>
       <c r="BH7">
-        <v>1.725</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="BI7">
         <v>23.5</v>
@@ -2344,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="BR7">
-        <v>70.61233333333332</v>
+        <v>70.612333333333325</v>
       </c>
       <c r="BS7">
         <v>19</v>
@@ -2353,24 +2420,24 @@
         <v>1.387666666666675</v>
       </c>
       <c r="BU7">
-        <v>326.79</v>
+        <v>326.79000000000002</v>
       </c>
       <c r="BV7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C8">
         <v>42</v>
       </c>
       <c r="D8">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E8">
         <v>81</v>
@@ -2388,19 +2455,19 @@
         <v>64</v>
       </c>
       <c r="J8">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K8">
         <v>90</v>
       </c>
       <c r="L8">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="M8">
         <v>73</v>
       </c>
       <c r="N8">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -2412,19 +2479,19 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="S8">
         <v>42</v>
       </c>
       <c r="T8">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="U8">
         <v>81</v>
       </c>
       <c r="V8">
-        <v>1.295</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="W8">
         <v>11</v>
@@ -2442,7 +2509,7 @@
         <v>109.5</v>
       </c>
       <c r="AB8">
-        <v>287.4</v>
+        <v>287.39999999999998</v>
       </c>
       <c r="AC8">
         <v>182</v>
@@ -2454,7 +2521,7 @@
         <v>156</v>
       </c>
       <c r="AF8">
-        <v>64.51000000000001</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="AG8">
         <v>53</v>
@@ -2490,13 +2557,13 @@
         <v>34</v>
       </c>
       <c r="AR8">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AS8">
         <v>25.5</v>
       </c>
       <c r="AT8">
-        <v>65.31999999999999</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="AU8">
         <v>140</v>
@@ -2568,7 +2635,7 @@
         <v>33.5</v>
       </c>
       <c r="BR8">
-        <v>69.63566666666667</v>
+        <v>69.635666666666665</v>
       </c>
       <c r="BS8">
         <v>16</v>
@@ -2583,9 +2650,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>0.188</v>
@@ -2606,31 +2673,31 @@
         <v>42</v>
       </c>
       <c r="H9">
-        <v>-0.388</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="I9">
         <v>199</v>
       </c>
       <c r="J9">
-        <v>0.6940000000000001</v>
+        <v>0.69400000000000006</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9">
-        <v>0.773</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="O9">
         <v>34</v>
       </c>
       <c r="P9">
-        <v>0.428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="Q9">
         <v>41</v>
@@ -2654,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="X9">
-        <v>1.303</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="Y9">
         <v>19</v>
       </c>
       <c r="Z9">
-        <v>301.6</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="AA9">
         <v>56.5</v>
@@ -2714,7 +2781,7 @@
         <v>13.5</v>
       </c>
       <c r="AR9">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AS9">
         <v>128</v>
@@ -2726,7 +2793,7 @@
         <v>38</v>
       </c>
       <c r="AV9">
-        <v>67.04000000000001</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="AW9">
         <v>87</v>
@@ -2792,13 +2859,13 @@
         <v>65</v>
       </c>
       <c r="BR9">
-        <v>71.94199999999999</v>
+        <v>71.941999999999993</v>
       </c>
       <c r="BS9">
-        <v>46.33333333333334</v>
+        <v>46.333333333333343</v>
       </c>
       <c r="BT9">
-        <v>0.05800000000000693</v>
+        <v>5.8000000000006928E-2</v>
       </c>
       <c r="BU9">
         <v>306.01</v>
@@ -2807,18 +2874,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10">
-        <v>0.7020000000000001</v>
+        <v>0.70200000000000007</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E10">
         <v>3.5</v>
@@ -2842,13 +2909,13 @@
         <v>19</v>
       </c>
       <c r="L10">
-        <v>0.178</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="M10">
         <v>81</v>
       </c>
       <c r="N10">
-        <v>-0.07099999999999999</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="O10">
         <v>122</v>
@@ -2860,19 +2927,19 @@
         <v>105.5</v>
       </c>
       <c r="R10">
-        <v>0.7020000000000001</v>
+        <v>0.70200000000000007</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="U10">
         <v>3.5</v>
       </c>
       <c r="V10">
-        <v>1.243</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="W10">
         <v>12.5</v>
@@ -2890,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="AB10">
-        <v>319.1</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="AC10">
         <v>3</v>
@@ -2986,7 +3053,7 @@
         <v>40</v>
       </c>
       <c r="BH10">
-        <v>1.731</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="BI10">
         <v>37</v>
@@ -3016,27 +3083,27 @@
         <v>14.5</v>
       </c>
       <c r="BR10">
-        <v>69.92325</v>
+        <v>69.923249999999996</v>
       </c>
       <c r="BS10">
         <v>14.375</v>
       </c>
       <c r="BT10">
-        <v>2.076750000000004</v>
+        <v>2.0767500000000041</v>
       </c>
       <c r="BU10">
-        <v>285.1</v>
+        <v>285.10000000000002</v>
       </c>
       <c r="BV10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B11">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -3048,7 +3115,7 @@
         <v>17</v>
       </c>
       <c r="F11">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G11">
         <v>30</v>
@@ -3060,31 +3127,31 @@
         <v>51</v>
       </c>
       <c r="J11">
-        <v>0.4970000000000001</v>
+        <v>0.49700000000000011</v>
       </c>
       <c r="K11">
         <v>21</v>
       </c>
       <c r="L11">
-        <v>0.708</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="M11">
         <v>11</v>
       </c>
       <c r="N11">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O11">
         <v>69.5</v>
       </c>
       <c r="P11">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="Q11">
         <v>70.5</v>
       </c>
       <c r="R11">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="S11">
         <v>32</v>
@@ -3096,13 +3163,13 @@
         <v>17</v>
       </c>
       <c r="V11">
-        <v>1.243</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="W11">
         <v>12.5</v>
       </c>
       <c r="X11">
-        <v>1.683</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="Y11">
         <v>7</v>
@@ -3156,13 +3223,13 @@
         <v>31</v>
       </c>
       <c r="AP11">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AQ11">
         <v>29.5</v>
       </c>
       <c r="AR11">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AS11">
         <v>25.5</v>
@@ -3210,7 +3277,7 @@
         <v>23</v>
       </c>
       <c r="BH11">
-        <v>1.695</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="BI11">
         <v>4.5</v>
@@ -3255,9 +3322,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>0.123</v>
@@ -3266,19 +3333,19 @@
         <v>79</v>
       </c>
       <c r="D12">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E12">
         <v>76.5</v>
       </c>
       <c r="F12">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="G12">
         <v>32.5</v>
       </c>
       <c r="H12">
-        <v>0.474</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -3290,19 +3357,19 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="M12">
         <v>84</v>
       </c>
       <c r="N12">
-        <v>0.589</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="O12">
         <v>13</v>
       </c>
       <c r="P12">
-        <v>0.6759999999999999</v>
+        <v>0.67599999999999993</v>
       </c>
       <c r="Q12">
         <v>14</v>
@@ -3314,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="T12">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="U12">
         <v>76.5</v>
@@ -3326,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="X12">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="Y12">
         <v>14</v>
@@ -3338,7 +3405,7 @@
         <v>107</v>
       </c>
       <c r="AB12">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="AC12">
         <v>130.5</v>
@@ -3350,7 +3417,7 @@
         <v>18</v>
       </c>
       <c r="AF12">
-        <v>71.43000000000001</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="AG12">
         <v>5</v>
@@ -3380,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AQ12">
         <v>7.5</v>
@@ -3410,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="AZ12">
-        <v>70.65000000000001</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="BA12">
         <v>1</v>
@@ -3428,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="BF12">
-        <v>1.691</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -3464,81 +3531,81 @@
         <v>14.5</v>
       </c>
       <c r="BR12">
-        <v>69.95266666666667</v>
+        <v>69.952666666666673</v>
       </c>
       <c r="BS12">
         <v>11.66666666666667</v>
       </c>
       <c r="BT12">
-        <v>2.047333333333327</v>
+        <v>2.0473333333333268</v>
       </c>
       <c r="BU12">
-        <v>261.22</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="BV12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C13">
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E13">
         <v>27.5</v>
       </c>
       <c r="F13">
-        <v>-0.028</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="G13">
         <v>102</v>
       </c>
       <c r="H13">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="I13">
         <v>62</v>
       </c>
       <c r="J13">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="K13">
         <v>47.5</v>
       </c>
       <c r="L13">
-        <v>0.544</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="M13">
         <v>24</v>
       </c>
       <c r="N13">
-        <v>-0.236</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="O13">
         <v>144</v>
       </c>
       <c r="P13">
-        <v>0.778</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="S13">
         <v>28</v>
       </c>
       <c r="T13">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="U13">
         <v>27.5</v>
@@ -3550,7 +3617,7 @@
         <v>58</v>
       </c>
       <c r="X13">
-        <v>1.874</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="Y13">
         <v>4</v>
@@ -3604,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="AP13">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AQ13">
         <v>117</v>
@@ -3622,7 +3689,7 @@
         <v>105</v>
       </c>
       <c r="AV13">
-        <v>67.95999999999999</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="AW13">
         <v>65</v>
@@ -3646,7 +3713,7 @@
         <v>159</v>
       </c>
       <c r="BD13">
-        <v>68.29000000000001</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="BE13">
         <v>4</v>
@@ -3658,7 +3725,7 @@
         <v>58.5</v>
       </c>
       <c r="BH13">
-        <v>1.711</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="BI13">
         <v>14</v>
@@ -3691,7 +3758,7 @@
         <v>69.65100000000001</v>
       </c>
       <c r="BS13">
-        <v>8.333333333333334</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="BT13">
         <v>2.34899999999999</v>
@@ -3703,36 +3770,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B14">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="C14">
         <v>18</v>
       </c>
       <c r="D14">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>-0.243</v>
+        <v>-0.24299999999999999</v>
       </c>
       <c r="G14">
         <v>168</v>
       </c>
       <c r="H14">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I14">
         <v>104</v>
       </c>
       <c r="J14">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -3744,7 +3811,7 @@
         <v>37</v>
       </c>
       <c r="N14">
-        <v>-0.048</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="O14">
         <v>115</v>
@@ -3756,25 +3823,25 @@
         <v>91</v>
       </c>
       <c r="R14">
-        <v>0.447</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="S14">
         <v>18</v>
       </c>
       <c r="T14">
-        <v>0.765</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="U14">
         <v>5</v>
       </c>
       <c r="V14">
-        <v>0.789</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="W14">
         <v>23</v>
       </c>
       <c r="X14">
-        <v>1.372</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="Y14">
         <v>17</v>
@@ -3786,7 +3853,7 @@
         <v>78.5</v>
       </c>
       <c r="AB14">
-        <v>301.6</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="AC14">
         <v>53</v>
@@ -3828,7 +3895,7 @@
         <v>21</v>
       </c>
       <c r="AP14">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AQ14">
         <v>55.5</v>
@@ -3912,13 +3979,13 @@
         <v>14.5</v>
       </c>
       <c r="BR14">
-        <v>70.57400000000001</v>
+        <v>70.574000000000012</v>
       </c>
       <c r="BS14">
         <v>24.75</v>
       </c>
       <c r="BT14">
-        <v>1.425999999999988</v>
+        <v>1.4259999999999879</v>
       </c>
       <c r="BU14">
         <v>248.91</v>
@@ -3927,18 +3994,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B15">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="C15">
         <v>23</v>
       </c>
       <c r="D15">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="E15">
         <v>21</v>
@@ -3950,13 +4017,13 @@
         <v>43</v>
       </c>
       <c r="H15">
-        <v>0.508</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="K15">
         <v>18</v>
@@ -3980,19 +4047,19 @@
         <v>51</v>
       </c>
       <c r="R15">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="S15">
         <v>23</v>
       </c>
       <c r="T15">
-        <v>0.452</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="U15">
         <v>21</v>
       </c>
       <c r="V15">
-        <v>1.316</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="W15">
         <v>10</v>
@@ -4004,13 +4071,13 @@
         <v>6</v>
       </c>
       <c r="Z15">
-        <v>303.1</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="AA15">
         <v>40</v>
       </c>
       <c r="AB15">
-        <v>300.1</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="AC15">
         <v>67</v>
@@ -4100,7 +4167,7 @@
         <v>48.5</v>
       </c>
       <c r="BF15">
-        <v>1.723</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="BG15">
         <v>14</v>
@@ -4136,13 +4203,13 @@
         <v>14.5</v>
       </c>
       <c r="BR15">
-        <v>69.845</v>
+        <v>69.844999999999999</v>
       </c>
       <c r="BS15">
         <v>19</v>
       </c>
       <c r="BT15">
-        <v>2.155000000000001</v>
+        <v>2.1550000000000011</v>
       </c>
       <c r="BU15">
         <v>245.12</v>
@@ -4151,12 +4218,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C16">
         <v>37</v>
@@ -4168,43 +4235,43 @@
         <v>25</v>
       </c>
       <c r="F16">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G16">
         <v>68</v>
       </c>
       <c r="H16">
-        <v>-0.063</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="I16">
         <v>141</v>
       </c>
       <c r="J16">
-        <v>-0.033</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="K16">
         <v>114</v>
       </c>
       <c r="L16">
-        <v>-0.366</v>
+        <v>-0.36599999999999999</v>
       </c>
       <c r="M16">
         <v>169</v>
       </c>
       <c r="N16">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="O16">
         <v>28</v>
       </c>
       <c r="P16">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="Q16">
         <v>61</v>
       </c>
       <c r="R16">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="S16">
         <v>37</v>
@@ -4216,13 +4283,13 @@
         <v>25</v>
       </c>
       <c r="V16">
-        <v>0.7709999999999999</v>
+        <v>0.77099999999999991</v>
       </c>
       <c r="W16">
         <v>27</v>
       </c>
       <c r="X16">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="Y16">
         <v>82</v>
@@ -4234,7 +4301,7 @@
         <v>78.5</v>
       </c>
       <c r="AB16">
-        <v>293.1</v>
+        <v>293.10000000000002</v>
       </c>
       <c r="AC16">
         <v>128</v>
@@ -4246,7 +4313,7 @@
         <v>59</v>
       </c>
       <c r="AF16">
-        <v>65.26000000000001</v>
+        <v>65.260000000000005</v>
       </c>
       <c r="AG16">
         <v>44</v>
@@ -4270,13 +4337,13 @@
         <v>64</v>
       </c>
       <c r="AN16">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AO16">
         <v>89.5</v>
       </c>
       <c r="AP16">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AQ16">
         <v>55.5</v>
@@ -4294,7 +4361,7 @@
         <v>121</v>
       </c>
       <c r="AV16">
-        <v>69.56999999999999</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="AW16">
         <v>38</v>
@@ -4360,13 +4427,13 @@
         <v>14.5</v>
       </c>
       <c r="BR16">
-        <v>72.464</v>
+        <v>72.463999999999999</v>
       </c>
       <c r="BS16">
         <v>104.75</v>
       </c>
       <c r="BT16">
-        <v>-0.4639999999999986</v>
+        <v>-0.46399999999999858</v>
       </c>
       <c r="BU16">
         <v>230.89</v>
@@ -4375,24 +4442,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:74">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C17">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="E17">
         <v>27.5</v>
       </c>
       <c r="F17">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="G17">
         <v>28</v>
@@ -4404,37 +4471,37 @@
         <v>151</v>
       </c>
       <c r="J17">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="K17">
         <v>34</v>
       </c>
       <c r="L17">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M17">
         <v>36</v>
       </c>
       <c r="N17">
-        <v>0.526</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="O17">
         <v>17</v>
       </c>
       <c r="P17">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="Q17">
         <v>20.5</v>
       </c>
       <c r="R17">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="S17">
         <v>27</v>
       </c>
       <c r="T17">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="U17">
         <v>27.5</v>
@@ -4446,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="X17">
-        <v>1.332</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="Y17">
         <v>18</v>
@@ -4458,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="AB17">
-        <v>297.9</v>
+        <v>297.89999999999998</v>
       </c>
       <c r="AC17">
         <v>81.5</v>
@@ -4512,7 +4579,7 @@
         <v>19.5</v>
       </c>
       <c r="AT17">
-        <v>66.93000000000001</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="AU17">
         <v>100</v>
@@ -4584,7 +4651,7 @@
         <v>14.5</v>
       </c>
       <c r="BR17">
-        <v>71.15966666666667</v>
+        <v>71.159666666666666</v>
       </c>
       <c r="BS17">
         <v>38.5</v>
@@ -4599,30 +4666,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:74">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B18">
-        <v>0.4370000000000001</v>
+        <v>0.43700000000000011</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18">
-        <v>0.723</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18">
-        <v>0.006999999999999999</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="G18">
         <v>92</v>
       </c>
       <c r="H18">
-        <v>-0.242</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="I18">
         <v>177</v>
@@ -4640,7 +4707,7 @@
         <v>92</v>
       </c>
       <c r="N18">
-        <v>0.233</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="O18">
         <v>55</v>
@@ -4652,25 +4719,25 @@
         <v>31</v>
       </c>
       <c r="R18">
-        <v>0.4370000000000001</v>
+        <v>0.43700000000000011</v>
       </c>
       <c r="S18">
         <v>20</v>
       </c>
       <c r="T18">
-        <v>0.723</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="U18">
         <v>6</v>
       </c>
       <c r="V18">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="W18">
         <v>25</v>
       </c>
       <c r="X18">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Y18">
         <v>28</v>
@@ -4682,7 +4749,7 @@
         <v>69</v>
       </c>
       <c r="AB18">
-        <v>297.4</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="AC18">
         <v>87.5</v>
@@ -4823,24 +4890,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:74">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B19">
-        <v>0.546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="C19">
         <v>15</v>
       </c>
       <c r="D19">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E19">
         <v>76.5</v>
       </c>
       <c r="F19">
-        <v>-0.363</v>
+        <v>-0.36299999999999999</v>
       </c>
       <c r="G19">
         <v>186</v>
@@ -4852,7 +4919,7 @@
         <v>41</v>
       </c>
       <c r="J19">
-        <v>0.631</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -4864,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="N19">
-        <v>-0.383</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="O19">
         <v>165</v>
@@ -4876,19 +4943,19 @@
         <v>75.5</v>
       </c>
       <c r="R19">
-        <v>0.546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="S19">
         <v>15</v>
       </c>
       <c r="T19">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="U19">
         <v>76.5</v>
       </c>
       <c r="V19">
-        <v>0.431</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="W19">
         <v>55.5</v>
@@ -4906,7 +4973,7 @@
         <v>23</v>
       </c>
       <c r="AB19">
-        <v>302.1</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="AC19">
         <v>49</v>
@@ -4954,7 +5021,7 @@
         <v>24</v>
       </c>
       <c r="AR19">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AS19">
         <v>120</v>
@@ -5002,7 +5069,7 @@
         <v>134.5</v>
       </c>
       <c r="BH19">
-        <v>1.765</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="BI19">
         <v>111.5</v>
@@ -5032,13 +5099,13 @@
         <v>14.5</v>
       </c>
       <c r="BR19">
-        <v>70.40066666666667</v>
+        <v>70.400666666666666</v>
       </c>
       <c r="BS19">
         <v>50.5</v>
       </c>
       <c r="BT19">
-        <v>1.599333333333334</v>
+        <v>1.5993333333333339</v>
       </c>
       <c r="BU19">
         <v>216.56</v>
@@ -5047,9 +5114,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:74">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20">
         <v>0.215</v>
@@ -5058,13 +5125,13 @@
         <v>53</v>
       </c>
       <c r="D20">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E20">
         <v>73</v>
       </c>
       <c r="F20">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="G20">
         <v>27</v>
@@ -5076,7 +5143,7 @@
         <v>79</v>
       </c>
       <c r="J20">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="K20">
         <v>25</v>
@@ -5088,7 +5155,7 @@
         <v>106</v>
       </c>
       <c r="N20">
-        <v>0.518</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="O20">
         <v>18</v>
@@ -5106,31 +5173,31 @@
         <v>53</v>
       </c>
       <c r="T20">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="U20">
         <v>73</v>
       </c>
       <c r="V20">
-        <v>1.467</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="W20">
         <v>7</v>
       </c>
       <c r="X20">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="Y20">
         <v>48</v>
       </c>
       <c r="Z20">
-        <v>300.9</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="AA20">
         <v>65.5</v>
       </c>
       <c r="AB20">
-        <v>296.4</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="AC20">
         <v>102.5</v>
@@ -5172,7 +5239,7 @@
         <v>31</v>
       </c>
       <c r="AP20">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AQ20">
         <v>66.5</v>
@@ -5190,7 +5257,7 @@
         <v>9</v>
       </c>
       <c r="AV20">
-        <v>66.93000000000001</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="AW20">
         <v>90</v>
@@ -5202,7 +5269,7 @@
         <v>6</v>
       </c>
       <c r="AZ20">
-        <v>66.40000000000001</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5220,13 +5287,13 @@
         <v>162</v>
       </c>
       <c r="BF20">
-        <v>1.749</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="BG20">
         <v>61.5</v>
       </c>
       <c r="BH20">
-        <v>1.731</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="BI20">
         <v>37</v>
@@ -5271,18 +5338,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:74">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21">
-        <v>0.618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -5294,25 +5361,25 @@
         <v>58</v>
       </c>
       <c r="H21">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I21">
         <v>25</v>
       </c>
       <c r="J21">
-        <v>0.398</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="K21">
         <v>33</v>
       </c>
       <c r="L21">
-        <v>-0.08900000000000001</v>
+        <v>-8.900000000000001E-2</v>
       </c>
       <c r="M21">
         <v>125</v>
       </c>
       <c r="N21">
-        <v>-0.053</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="O21">
         <v>117</v>
@@ -5324,37 +5391,37 @@
         <v>92</v>
       </c>
       <c r="R21">
-        <v>0.618</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="S21">
         <v>10</v>
       </c>
       <c r="T21">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="U21">
         <v>18</v>
       </c>
       <c r="V21">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="W21">
         <v>15</v>
       </c>
       <c r="X21">
-        <v>0.8440000000000001</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="Y21">
         <v>37</v>
       </c>
       <c r="Z21">
-        <v>308.9</v>
+        <v>308.89999999999998</v>
       </c>
       <c r="AA21">
         <v>16</v>
       </c>
       <c r="AB21">
-        <v>304.6</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="AC21">
         <v>33</v>
@@ -5366,7 +5433,7 @@
         <v>84</v>
       </c>
       <c r="AF21">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="AG21">
         <v>25</v>
@@ -5408,7 +5475,7 @@
         <v>55</v>
       </c>
       <c r="AT21">
-        <v>69.04000000000001</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="AU21">
         <v>43</v>
@@ -5444,7 +5511,7 @@
         <v>111.5</v>
       </c>
       <c r="BF21">
-        <v>1.737</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="BG21">
         <v>36.5</v>
@@ -5480,13 +5547,13 @@
         <v>33.5</v>
       </c>
       <c r="BR21">
-        <v>71.03699999999999</v>
+        <v>71.036999999999992</v>
       </c>
       <c r="BS21">
         <v>91</v>
       </c>
       <c r="BT21">
-        <v>0.9630000000000081</v>
+        <v>0.96300000000000807</v>
       </c>
       <c r="BU21">
         <v>211.71</v>
@@ -5495,18 +5562,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:74">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B22">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="C22">
         <v>24</v>
       </c>
       <c r="D22">
-        <v>-0.352</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="E22">
         <v>175</v>
@@ -5518,49 +5585,49 @@
         <v>64.5</v>
       </c>
       <c r="H22">
-        <v>0.367</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="I22">
         <v>19</v>
       </c>
       <c r="J22">
-        <v>-0.3779999999999999</v>
+        <v>-0.37799999999999989</v>
       </c>
       <c r="K22">
         <v>165</v>
       </c>
       <c r="L22">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="M22">
         <v>83</v>
       </c>
       <c r="N22">
-        <v>0.4370000000000001</v>
+        <v>0.43700000000000011</v>
       </c>
       <c r="O22">
         <v>26</v>
       </c>
       <c r="P22">
-        <v>-0.207</v>
+        <v>-0.20699999999999999</v>
       </c>
       <c r="Q22">
         <v>155</v>
       </c>
       <c r="R22">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="S22">
         <v>24</v>
       </c>
       <c r="T22">
-        <v>-0.352</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="U22">
         <v>175</v>
       </c>
       <c r="V22">
-        <v>0.556</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="W22">
         <v>46</v>
@@ -5572,13 +5639,13 @@
         <v>110</v>
       </c>
       <c r="Z22">
-        <v>309.6</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="AA22">
         <v>14</v>
       </c>
       <c r="AB22">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="AC22">
         <v>70</v>
@@ -5638,7 +5705,7 @@
         <v>89</v>
       </c>
       <c r="AV22">
-        <v>64.68000000000001</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="AW22">
         <v>153</v>
@@ -5668,13 +5735,13 @@
         <v>120</v>
       </c>
       <c r="BF22">
-        <v>1.787</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="BG22">
         <v>159.5</v>
       </c>
       <c r="BH22">
-        <v>1.779</v>
+        <v>1.7789999999999999</v>
       </c>
       <c r="BI22">
         <v>146.5</v>
@@ -5704,13 +5771,13 @@
         <v>65</v>
       </c>
       <c r="BR22">
-        <v>71.39333333333333</v>
+        <v>71.393333333333331</v>
       </c>
       <c r="BS22">
-        <v>75.33333333333333</v>
+        <v>75.333333333333329</v>
       </c>
       <c r="BT22">
-        <v>0.6066666666666691</v>
+        <v>0.60666666666666913</v>
       </c>
       <c r="BU22">
         <v>203.21</v>
@@ -5719,12 +5786,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:74">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="C23">
         <v>38.5</v>
@@ -5736,7 +5803,7 @@
         <v>62</v>
       </c>
       <c r="F23">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -5748,31 +5815,31 @@
         <v>32</v>
       </c>
       <c r="J23">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="M23">
         <v>31</v>
       </c>
       <c r="N23">
-        <v>-0.469</v>
+        <v>-0.46899999999999997</v>
       </c>
       <c r="O23">
         <v>170</v>
       </c>
       <c r="P23">
-        <v>-0.301</v>
+        <v>-0.30099999999999999</v>
       </c>
       <c r="Q23">
         <v>170</v>
       </c>
       <c r="R23">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="S23">
         <v>38.5</v>
@@ -5784,19 +5851,19 @@
         <v>62</v>
       </c>
       <c r="V23">
-        <v>0.9640000000000001</v>
+        <v>0.96400000000000008</v>
       </c>
       <c r="W23">
         <v>17</v>
       </c>
       <c r="X23">
-        <v>0.7170000000000001</v>
+        <v>0.71700000000000008</v>
       </c>
       <c r="Y23">
         <v>49.5</v>
       </c>
       <c r="Z23">
-        <v>304.4</v>
+        <v>304.39999999999998</v>
       </c>
       <c r="AA23">
         <v>34</v>
@@ -5850,13 +5917,13 @@
         <v>13.5</v>
       </c>
       <c r="AR23">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AS23">
         <v>25.5</v>
       </c>
       <c r="AT23">
-        <v>68.54000000000001</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="AU23">
         <v>53</v>
@@ -5892,7 +5959,7 @@
         <v>164</v>
       </c>
       <c r="BF23">
-        <v>1.755</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="BG23">
         <v>74.5</v>
@@ -5928,13 +5995,13 @@
         <v>114</v>
       </c>
       <c r="BR23">
-        <v>70.52124999999999</v>
+        <v>70.521249999999995</v>
       </c>
       <c r="BS23">
         <v>20.125</v>
       </c>
       <c r="BT23">
-        <v>1.478750000000005</v>
+        <v>1.4787500000000049</v>
       </c>
       <c r="BU23">
         <v>185.04</v>
@@ -5943,9 +6010,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:74">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <v>0.37</v>
@@ -5954,7 +6021,7 @@
         <v>26</v>
       </c>
       <c r="D24">
-        <v>0.6609999999999999</v>
+        <v>0.66099999999999992</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -5966,25 +6033,25 @@
         <v>152.5</v>
       </c>
       <c r="H24">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I24">
         <v>96</v>
       </c>
       <c r="J24">
-        <v>0.5620000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="K24">
         <v>15</v>
       </c>
       <c r="L24">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="M24">
         <v>44.5</v>
       </c>
       <c r="N24">
-        <v>-0.242</v>
+        <v>-0.24199999999999999</v>
       </c>
       <c r="O24">
         <v>146</v>
@@ -6002,7 +6069,7 @@
         <v>26</v>
       </c>
       <c r="T24">
-        <v>0.6609999999999999</v>
+        <v>0.66099999999999992</v>
       </c>
       <c r="U24">
         <v>7</v>
@@ -6014,7 +6081,7 @@
         <v>49</v>
       </c>
       <c r="X24">
-        <v>1.568</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="Y24">
         <v>11</v>
@@ -6068,7 +6135,7 @@
         <v>8.5</v>
       </c>
       <c r="AP24">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AQ24">
         <v>104.5</v>
@@ -6116,7 +6183,7 @@
         <v>104</v>
       </c>
       <c r="BF24">
-        <v>1.767</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="BG24">
         <v>111.5</v>
@@ -6152,13 +6219,13 @@
         <v>33.5</v>
       </c>
       <c r="BR24">
-        <v>69.52199999999999</v>
+        <v>69.521999999999991</v>
       </c>
       <c r="BS24">
         <v>10</v>
       </c>
       <c r="BT24">
-        <v>2.478000000000009</v>
+        <v>2.4780000000000091</v>
       </c>
       <c r="BU24">
         <v>181.98</v>
@@ -6167,72 +6234,72 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:74">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B25">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="C25">
         <v>33</v>
       </c>
       <c r="D25">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E25">
         <v>64</v>
       </c>
       <c r="F25">
-        <v>-0.09300000000000001</v>
+        <v>-9.3000000000000013E-2</v>
       </c>
       <c r="G25">
         <v>127.5</v>
       </c>
       <c r="H25">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I25">
         <v>98</v>
       </c>
       <c r="J25">
-        <v>0.335</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K25">
         <v>45.5</v>
       </c>
       <c r="L25">
-        <v>0.353</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="M25">
         <v>54</v>
       </c>
       <c r="N25">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="O25">
         <v>41</v>
       </c>
       <c r="P25">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="Q25">
         <v>111</v>
       </c>
       <c r="R25">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="S25">
         <v>33</v>
       </c>
       <c r="T25">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="U25">
         <v>64</v>
       </c>
       <c r="V25">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="W25">
         <v>20</v>
@@ -6310,7 +6377,7 @@
         <v>96.5</v>
       </c>
       <c r="AV25">
-        <v>71.20999999999999</v>
+        <v>71.209999999999994</v>
       </c>
       <c r="AW25">
         <v>14</v>
@@ -6340,13 +6407,13 @@
         <v>102</v>
       </c>
       <c r="BF25">
-        <v>1.743</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="BG25">
         <v>51</v>
       </c>
       <c r="BH25">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="BI25">
         <v>49.5</v>
@@ -6391,9 +6458,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:74">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>-0.245</v>
@@ -6408,7 +6475,7 @@
         <v>122</v>
       </c>
       <c r="F26">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G26">
         <v>71.5</v>
@@ -6432,13 +6499,13 @@
         <v>77</v>
       </c>
       <c r="N26">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O26">
         <v>46</v>
       </c>
       <c r="P26">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="Q26">
         <v>20.5</v>
@@ -6456,7 +6523,7 @@
         <v>122</v>
       </c>
       <c r="V26">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="W26">
         <v>98</v>
@@ -6522,7 +6589,7 @@
         <v>134</v>
       </c>
       <c r="AR26">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AS26">
         <v>1.5</v>
@@ -6600,13 +6667,13 @@
         <v>33.5</v>
       </c>
       <c r="BR26">
-        <v>70.52066666666667</v>
+        <v>70.520666666666671</v>
       </c>
       <c r="BS26">
         <v>24</v>
       </c>
       <c r="BT26">
-        <v>1.479333333333329</v>
+        <v>1.4793333333333289</v>
       </c>
       <c r="BU26">
         <v>177.92</v>
@@ -6615,12 +6682,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:74">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -6632,43 +6699,43 @@
         <v>22.5</v>
       </c>
       <c r="F27">
-        <v>-0.227</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="G27">
         <v>163</v>
       </c>
       <c r="H27">
-        <v>-0.09699999999999999</v>
+        <v>-9.6999999999999989E-2</v>
       </c>
       <c r="I27">
         <v>148</v>
       </c>
       <c r="J27">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K27">
         <v>74</v>
       </c>
       <c r="L27">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="M27">
         <v>82</v>
       </c>
       <c r="N27">
-        <v>-0.282</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="O27">
         <v>151</v>
       </c>
       <c r="P27">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="Q27">
         <v>9</v>
       </c>
       <c r="R27">
-        <v>0.633</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="S27">
         <v>9</v>
@@ -6680,7 +6747,7 @@
         <v>22.5</v>
       </c>
       <c r="V27">
-        <v>0.293</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="W27">
         <v>78</v>
@@ -6692,13 +6759,13 @@
         <v>21</v>
       </c>
       <c r="Z27">
-        <v>312.4</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="AA27">
         <v>7</v>
       </c>
       <c r="AB27">
-        <v>304.1</v>
+        <v>304.10000000000002</v>
       </c>
       <c r="AC27">
         <v>38</v>
@@ -6788,13 +6855,13 @@
         <v>42</v>
       </c>
       <c r="BF27">
-        <v>1.803</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="BG27">
         <v>178</v>
       </c>
       <c r="BH27">
-        <v>1.745</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="BI27">
         <v>61</v>
@@ -6824,13 +6891,13 @@
         <v>14.5</v>
       </c>
       <c r="BR27">
-        <v>69.807</v>
+        <v>69.807000000000002</v>
       </c>
       <c r="BS27">
         <v>20</v>
       </c>
       <c r="BT27">
-        <v>2.192999999999998</v>
+        <v>2.1929999999999978</v>
       </c>
       <c r="BU27">
         <v>174.94</v>
@@ -6839,9 +6906,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:74">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B28">
         <v>-0.41</v>
@@ -6856,37 +6923,37 @@
         <v>139</v>
       </c>
       <c r="F28">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G28">
         <v>49</v>
       </c>
       <c r="H28">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="I28">
         <v>4</v>
       </c>
       <c r="J28">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="K28">
         <v>58</v>
       </c>
       <c r="L28">
-        <v>-0.237</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="M28">
         <v>147</v>
       </c>
       <c r="N28">
-        <v>0.6929999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
       <c r="P28">
-        <v>-0.194</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="Q28">
         <v>150</v>
@@ -6904,19 +6971,19 @@
         <v>139</v>
       </c>
       <c r="V28">
-        <v>0.6909999999999999</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="W28">
         <v>33.5</v>
       </c>
       <c r="X28">
-        <v>0.03700000000000001</v>
+        <v>3.7000000000000012E-2</v>
       </c>
       <c r="Y28">
         <v>103</v>
       </c>
       <c r="Z28">
-        <v>286.9</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="AA28">
         <v>170</v>
@@ -6934,7 +7001,7 @@
         <v>62</v>
       </c>
       <c r="AF28">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="AG28">
         <v>26</v>
@@ -6988,7 +7055,7 @@
         <v>94</v>
       </c>
       <c r="AX28">
-        <v>65.95999999999999</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="AY28">
         <v>4</v>
@@ -7012,13 +7079,13 @@
         <v>117</v>
       </c>
       <c r="BF28">
-        <v>1.733</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="BG28">
         <v>24.5</v>
       </c>
       <c r="BH28">
-        <v>1.771</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="BI28">
         <v>128</v>
@@ -7048,13 +7115,13 @@
         <v>114</v>
       </c>
       <c r="BR28">
-        <v>71.71850000000001</v>
+        <v>71.718500000000006</v>
       </c>
       <c r="BS28">
         <v>77.5</v>
       </c>
       <c r="BT28">
-        <v>0.2814999999999941</v>
+        <v>0.28149999999999409</v>
       </c>
       <c r="BU28">
         <v>170.02</v>
@@ -7063,78 +7130,78 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:74">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B29">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C29">
         <v>40</v>
       </c>
       <c r="D29">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E29">
         <v>46</v>
       </c>
       <c r="F29">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G29">
         <v>87</v>
       </c>
       <c r="H29">
-        <v>-0.023</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="I29">
         <v>128.5</v>
       </c>
       <c r="J29">
-        <v>0.362</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="K29">
         <v>40</v>
       </c>
       <c r="L29">
-        <v>0.459</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="M29">
         <v>35</v>
       </c>
       <c r="N29">
-        <v>-0.272</v>
+        <v>-0.27200000000000002</v>
       </c>
       <c r="O29">
         <v>150</v>
       </c>
       <c r="P29">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="Q29">
         <v>66</v>
       </c>
       <c r="R29">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S29">
         <v>40</v>
       </c>
       <c r="T29">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="U29">
         <v>46</v>
       </c>
       <c r="V29">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="W29">
         <v>65</v>
       </c>
       <c r="X29">
-        <v>1.007</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="Y29">
         <v>30</v>
@@ -7146,7 +7213,7 @@
         <v>78.5</v>
       </c>
       <c r="AB29">
-        <v>302.4</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="AC29">
         <v>46.5</v>
@@ -7176,7 +7243,7 @@
         <v>133</v>
       </c>
       <c r="AL29">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AM29">
         <v>112.5</v>
@@ -7200,13 +7267,13 @@
         <v>4</v>
       </c>
       <c r="AT29">
-        <v>65.93000000000001</v>
+        <v>65.930000000000007</v>
       </c>
       <c r="AU29">
         <v>126.5</v>
       </c>
       <c r="AV29">
-        <v>70.76000000000001</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="AW29">
         <v>18</v>
@@ -7242,7 +7309,7 @@
         <v>48</v>
       </c>
       <c r="BH29">
-        <v>1.725</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="BI29">
         <v>23.5</v>
@@ -7272,7 +7339,7 @@
         <v>33.5</v>
       </c>
       <c r="BR29">
-        <v>70.348</v>
+        <v>70.347999999999999</v>
       </c>
       <c r="BS29">
         <v>46</v>
@@ -7287,30 +7354,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:74">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B30">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C30">
         <v>87.5</v>
       </c>
       <c r="D30">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E30">
         <v>87</v>
       </c>
       <c r="F30">
-        <v>-0.268</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="G30">
         <v>176</v>
       </c>
       <c r="H30">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -7322,31 +7389,31 @@
         <v>126</v>
       </c>
       <c r="L30">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="M30">
         <v>110</v>
       </c>
       <c r="N30">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="O30">
         <v>50</v>
       </c>
       <c r="P30">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="Q30">
         <v>3</v>
       </c>
       <c r="R30">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="S30">
         <v>87.5</v>
       </c>
       <c r="T30">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="U30">
         <v>87</v>
@@ -7364,7 +7431,7 @@
         <v>10</v>
       </c>
       <c r="Z30">
-        <v>300.1</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="AA30">
         <v>72</v>
@@ -7412,7 +7479,7 @@
         <v>43</v>
       </c>
       <c r="AP30">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AQ30">
         <v>152</v>
@@ -7430,7 +7497,7 @@
         <v>142</v>
       </c>
       <c r="AV30">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="AW30">
         <v>88.5</v>
@@ -7460,7 +7527,7 @@
         <v>45</v>
       </c>
       <c r="BF30">
-        <v>1.757</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="BG30">
         <v>81</v>
@@ -7496,13 +7563,13 @@
         <v>65</v>
       </c>
       <c r="BR30">
-        <v>70.815</v>
+        <v>70.814999999999998</v>
       </c>
       <c r="BS30">
         <v>27.125</v>
       </c>
       <c r="BT30">
-        <v>1.185000000000002</v>
+        <v>1.1850000000000021</v>
       </c>
       <c r="BU30">
         <v>165.07</v>
@@ -7511,24 +7578,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:74">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="C31">
         <v>12</v>
       </c>
       <c r="D31">
-        <v>-0.5660000000000001</v>
+        <v>-0.56600000000000006</v>
       </c>
       <c r="E31">
         <v>199</v>
       </c>
       <c r="F31">
-        <v>-0.337</v>
+        <v>-0.33700000000000002</v>
       </c>
       <c r="G31">
         <v>184</v>
@@ -7540,7 +7607,7 @@
         <v>204</v>
       </c>
       <c r="J31">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="K31">
         <v>91.5</v>
@@ -7558,25 +7625,25 @@
         <v>74</v>
       </c>
       <c r="P31">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="Q31">
         <v>70.5</v>
       </c>
       <c r="R31">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="S31">
         <v>12</v>
       </c>
       <c r="T31">
-        <v>-0.5660000000000001</v>
+        <v>-0.56600000000000006</v>
       </c>
       <c r="U31">
         <v>199</v>
       </c>
       <c r="V31">
-        <v>0.491</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="W31">
         <v>50</v>
@@ -7588,13 +7655,13 @@
         <v>128</v>
       </c>
       <c r="Z31">
-        <v>311.6</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="AA31">
         <v>9</v>
       </c>
       <c r="AB31">
-        <v>314.6</v>
+        <v>314.60000000000002</v>
       </c>
       <c r="AC31">
         <v>5</v>
@@ -7624,13 +7691,13 @@
         <v>171</v>
       </c>
       <c r="AL31">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AM31">
         <v>112.5</v>
       </c>
       <c r="AN31">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AO31">
         <v>154</v>
@@ -7642,13 +7709,13 @@
         <v>91</v>
       </c>
       <c r="AR31">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AS31">
         <v>48</v>
       </c>
       <c r="AT31">
-        <v>66.81999999999999</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="AU31">
         <v>104</v>
@@ -7720,7 +7787,7 @@
         <v>65</v>
       </c>
       <c r="BR31">
-        <v>70.785</v>
+        <v>70.784999999999997</v>
       </c>
       <c r="BS31">
         <v>75</v>
@@ -7735,12 +7802,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:74">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C32">
         <v>91</v>
@@ -7752,43 +7819,43 @@
         <v>151</v>
       </c>
       <c r="F32">
-        <v>-0.09300000000000001</v>
+        <v>-9.3000000000000013E-2</v>
       </c>
       <c r="G32">
         <v>127.5</v>
       </c>
       <c r="H32">
-        <v>-0.146</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="I32">
         <v>159</v>
       </c>
       <c r="J32">
-        <v>0.234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="K32">
         <v>65</v>
       </c>
       <c r="L32">
-        <v>0.139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="M32">
         <v>87</v>
       </c>
       <c r="N32">
-        <v>0.5589999999999999</v>
+        <v>0.55899999999999994</v>
       </c>
       <c r="O32">
         <v>15</v>
       </c>
       <c r="P32">
-        <v>0.493</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="Q32">
         <v>32</v>
       </c>
       <c r="R32">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="S32">
         <v>91</v>
@@ -7800,13 +7867,13 @@
         <v>151</v>
       </c>
       <c r="V32">
-        <v>0.757</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="W32">
         <v>29</v>
       </c>
       <c r="X32">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="Y32">
         <v>85</v>
@@ -7830,7 +7897,7 @@
         <v>33</v>
       </c>
       <c r="AF32">
-        <v>71.84999999999999</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="AG32">
         <v>4</v>
@@ -7866,7 +7933,7 @@
         <v>134</v>
       </c>
       <c r="AR32">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AS32">
         <v>120</v>
@@ -7908,13 +7975,13 @@
         <v>155</v>
       </c>
       <c r="BF32">
-        <v>1.743</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="BG32">
         <v>51</v>
       </c>
       <c r="BH32">
-        <v>1.711</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="BI32">
         <v>14</v>
@@ -7944,13 +8011,13 @@
         <v>114</v>
       </c>
       <c r="BR32">
-        <v>71.72525</v>
+        <v>71.725250000000003</v>
       </c>
       <c r="BS32">
         <v>66.5</v>
       </c>
       <c r="BT32">
-        <v>0.2747499999999974</v>
+        <v>0.27474999999999739</v>
       </c>
       <c r="BU32">
         <v>153.79</v>
@@ -7959,18 +8026,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:74">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="C33">
         <v>44</v>
       </c>
       <c r="D33">
-        <v>0.08900000000000001</v>
+        <v>8.900000000000001E-2</v>
       </c>
       <c r="E33">
         <v>84.5</v>
@@ -7994,49 +8061,49 @@
         <v>84.5</v>
       </c>
       <c r="L33">
-        <v>0.297</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="M33">
         <v>67</v>
       </c>
       <c r="N33">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O33">
         <v>69.5</v>
       </c>
       <c r="P33">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="Q33">
         <v>86</v>
       </c>
       <c r="R33">
-        <v>0.272</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="S33">
         <v>44</v>
       </c>
       <c r="T33">
-        <v>0.08900000000000001</v>
+        <v>8.900000000000001E-2</v>
       </c>
       <c r="U33">
         <v>84.5</v>
       </c>
       <c r="V33">
-        <v>0.279</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="W33">
         <v>80.5</v>
       </c>
       <c r="X33">
-        <v>0.7170000000000001</v>
+        <v>0.71700000000000008</v>
       </c>
       <c r="Y33">
         <v>49.5</v>
       </c>
       <c r="Z33">
-        <v>300.6</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="AA33">
         <v>67.5</v>
@@ -8084,7 +8151,7 @@
         <v>131.5</v>
       </c>
       <c r="AP33">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AQ33">
         <v>104.5</v>
@@ -8096,7 +8163,7 @@
         <v>7.5</v>
       </c>
       <c r="AT33">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="AU33">
         <v>164</v>
@@ -8138,7 +8205,7 @@
         <v>101.5</v>
       </c>
       <c r="BH33">
-        <v>1.701</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="BI33">
         <v>8</v>
@@ -8174,7 +8241,7 @@
         <v>136</v>
       </c>
       <c r="BT33">
-        <v>0.4500000000000028</v>
+        <v>0.45000000000000279</v>
       </c>
       <c r="BU33">
         <v>150.35</v>
@@ -8183,18 +8250,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:74">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>0.8079999999999999</v>
+        <v>0.80799999999999994</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -8212,13 +8279,13 @@
         <v>57</v>
       </c>
       <c r="J34">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="K34">
         <v>73</v>
       </c>
       <c r="L34">
-        <v>0.286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="M34">
         <v>70</v>
@@ -8230,31 +8297,31 @@
         <v>187</v>
       </c>
       <c r="P34">
-        <v>-0.57</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="Q34">
         <v>190</v>
       </c>
       <c r="R34">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="S34">
         <v>3</v>
       </c>
       <c r="T34">
-        <v>0.8079999999999999</v>
+        <v>0.80799999999999994</v>
       </c>
       <c r="U34">
         <v>2</v>
       </c>
       <c r="V34">
-        <v>0.583</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="W34">
         <v>42</v>
       </c>
       <c r="X34">
-        <v>0.7120000000000001</v>
+        <v>0.71200000000000008</v>
       </c>
       <c r="Y34">
         <v>51</v>
@@ -8266,7 +8333,7 @@
         <v>27</v>
       </c>
       <c r="AB34">
-        <v>308.6</v>
+        <v>308.60000000000002</v>
       </c>
       <c r="AC34">
         <v>15</v>
@@ -8308,7 +8375,7 @@
         <v>72</v>
       </c>
       <c r="AP34">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AQ34">
         <v>104.5</v>
@@ -8338,7 +8405,7 @@
         <v>89.5</v>
       </c>
       <c r="AZ34">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="BA34">
         <v>16</v>
@@ -8356,7 +8423,7 @@
         <v>179</v>
       </c>
       <c r="BF34">
-        <v>1.793</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="BG34">
         <v>167.5</v>
@@ -8392,13 +8459,13 @@
         <v>33.5</v>
       </c>
       <c r="BR34">
-        <v>69.46899999999999</v>
+        <v>69.468999999999994</v>
       </c>
       <c r="BS34">
         <v>33.75</v>
       </c>
       <c r="BT34">
-        <v>2.531000000000006</v>
+        <v>2.5310000000000059</v>
       </c>
       <c r="BU34">
         <v>140.03</v>
@@ -8407,36 +8474,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:74">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B35">
-        <v>-0.05599999999999999</v>
+        <v>-5.5999999999999987E-2</v>
       </c>
       <c r="C35">
         <v>118</v>
       </c>
       <c r="D35">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="E35">
         <v>132</v>
       </c>
       <c r="F35">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="G35">
         <v>9</v>
       </c>
       <c r="H35">
-        <v>-0.057</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="I35">
         <v>138</v>
       </c>
       <c r="J35">
-        <v>0.268</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="K35">
         <v>57</v>
@@ -8448,43 +8515,43 @@
         <v>56</v>
       </c>
       <c r="N35">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="O35">
         <v>49</v>
       </c>
       <c r="P35">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="Q35">
         <v>58</v>
       </c>
       <c r="R35">
-        <v>-0.05599999999999999</v>
+        <v>-5.5999999999999987E-2</v>
       </c>
       <c r="S35">
         <v>118</v>
       </c>
       <c r="T35">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="U35">
         <v>132</v>
       </c>
       <c r="V35">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="W35">
         <v>19</v>
       </c>
       <c r="X35">
-        <v>0.552</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="Y35">
         <v>64</v>
       </c>
       <c r="Z35">
-        <v>308.1</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="AA35">
         <v>19</v>
@@ -8532,13 +8599,13 @@
         <v>131.5</v>
       </c>
       <c r="AP35">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AQ35">
         <v>104.5</v>
       </c>
       <c r="AR35">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS35">
         <v>81</v>
@@ -8616,13 +8683,13 @@
         <v>114</v>
       </c>
       <c r="BR35">
-        <v>70.62625</v>
+        <v>70.626249999999999</v>
       </c>
       <c r="BS35">
         <v>23.5</v>
       </c>
       <c r="BT35">
-        <v>1.373750000000001</v>
+        <v>1.3737500000000009</v>
       </c>
       <c r="BU35">
         <v>139.53</v>
@@ -8631,42 +8698,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:74">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36">
-        <v>-0.202</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="C36">
         <v>157</v>
       </c>
       <c r="D36">
-        <v>-0.266</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="E36">
         <v>164</v>
       </c>
       <c r="F36">
-        <v>-0.143</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="G36">
         <v>142</v>
       </c>
       <c r="H36">
-        <v>-0.077</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="I36">
         <v>144</v>
       </c>
       <c r="J36">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="K36">
         <v>37.5</v>
       </c>
       <c r="L36">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="M36">
         <v>69</v>
@@ -8678,31 +8745,31 @@
         <v>149</v>
       </c>
       <c r="P36">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q36">
         <v>114.5</v>
       </c>
       <c r="R36">
-        <v>-0.202</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="S36">
         <v>157</v>
       </c>
       <c r="T36">
-        <v>-0.266</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="U36">
         <v>164</v>
       </c>
       <c r="V36">
-        <v>-0.239</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="W36">
         <v>136</v>
       </c>
       <c r="X36">
-        <v>-0.04099999999999999</v>
+        <v>-4.0999999999999988E-2</v>
       </c>
       <c r="Y36">
         <v>112</v>
@@ -8840,13 +8907,13 @@
         <v>114</v>
       </c>
       <c r="BR36">
-        <v>71.69199999999999</v>
+        <v>71.691999999999993</v>
       </c>
       <c r="BS36">
         <v>72.625</v>
       </c>
       <c r="BT36">
-        <v>0.3080000000000069</v>
+        <v>0.30800000000000688</v>
       </c>
       <c r="BU36">
         <v>137.38</v>
@@ -8855,9 +8922,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:74">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B37">
         <v>0.6</v>
@@ -8866,37 +8933,37 @@
         <v>13</v>
       </c>
       <c r="D37">
-        <v>0.5479999999999999</v>
+        <v>0.54799999999999993</v>
       </c>
       <c r="E37">
         <v>14</v>
       </c>
       <c r="F37">
-        <v>-0.175</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="G37">
         <v>151</v>
       </c>
       <c r="H37">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="I37">
         <v>123</v>
       </c>
       <c r="J37">
-        <v>0.5820000000000001</v>
+        <v>0.58200000000000007</v>
       </c>
       <c r="K37">
         <v>12</v>
       </c>
       <c r="L37">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="M37">
         <v>12.5</v>
       </c>
       <c r="N37">
-        <v>-0.603</v>
+        <v>-0.60299999999999998</v>
       </c>
       <c r="O37">
         <v>181</v>
@@ -8914,19 +8981,19 @@
         <v>13</v>
       </c>
       <c r="T37">
-        <v>0.5479999999999999</v>
+        <v>0.54799999999999993</v>
       </c>
       <c r="U37">
         <v>14</v>
       </c>
       <c r="V37">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="W37">
         <v>60</v>
       </c>
       <c r="X37">
-        <v>1.453</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="Y37">
         <v>15</v>
@@ -8938,7 +9005,7 @@
         <v>82.5</v>
       </c>
       <c r="AB37">
-        <v>294.4</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="AC37">
         <v>119.5</v>
@@ -8950,7 +9017,7 @@
         <v>20</v>
       </c>
       <c r="AF37">
-        <v>69.51000000000001</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="AG37">
         <v>11.5</v>
@@ -9070,7 +9137,7 @@
         <v>54.5</v>
       </c>
       <c r="BT37">
-        <v>0.5544999999999902</v>
+        <v>0.55449999999999022</v>
       </c>
       <c r="BU37">
         <v>132.16</v>
@@ -9079,18 +9146,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:74">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C38">
         <v>60</v>
       </c>
       <c r="D38">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E38">
         <v>35</v>
@@ -9102,67 +9169,67 @@
         <v>54</v>
       </c>
       <c r="H38">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I38">
         <v>29</v>
       </c>
       <c r="J38">
-        <v>0.354</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="K38">
         <v>42</v>
       </c>
       <c r="L38">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="M38">
         <v>86</v>
       </c>
       <c r="N38">
-        <v>-0.356</v>
+        <v>-0.35599999999999998</v>
       </c>
       <c r="O38">
         <v>163.5</v>
       </c>
       <c r="P38">
-        <v>-0.199</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="Q38">
         <v>152</v>
       </c>
       <c r="R38">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="S38">
         <v>60</v>
       </c>
       <c r="T38">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="U38">
         <v>35</v>
       </c>
       <c r="V38">
-        <v>0.322</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="W38">
         <v>72</v>
       </c>
       <c r="X38">
-        <v>0.584</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="Y38">
         <v>61</v>
       </c>
       <c r="Z38">
-        <v>299.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="AA38">
         <v>76</v>
       </c>
       <c r="AB38">
-        <v>299.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="AC38">
         <v>73</v>
@@ -9198,19 +9265,19 @@
         <v>89.5</v>
       </c>
       <c r="AN38">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AO38">
         <v>154</v>
       </c>
       <c r="AP38">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AQ38">
         <v>29.5</v>
       </c>
       <c r="AR38">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AS38">
         <v>166.5</v>
@@ -9258,7 +9325,7 @@
         <v>171</v>
       </c>
       <c r="BH38">
-        <v>1.803</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="BI38">
         <v>185</v>
@@ -9303,9 +9370,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:74">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <v>0.218</v>
@@ -9314,7 +9381,7 @@
         <v>50.5</v>
       </c>
       <c r="D39">
-        <v>-0.368</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="E39">
         <v>176</v>
@@ -9326,13 +9393,13 @@
         <v>137</v>
       </c>
       <c r="H39">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="I39">
         <v>130</v>
       </c>
       <c r="J39">
-        <v>0.233</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="K39">
         <v>66</v>
@@ -9344,13 +9411,13 @@
         <v>111</v>
       </c>
       <c r="N39">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O39">
         <v>110</v>
       </c>
       <c r="P39">
-        <v>0.235</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="Q39">
         <v>72.5</v>
@@ -9362,7 +9429,7 @@
         <v>50.5</v>
       </c>
       <c r="T39">
-        <v>-0.368</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="U39">
         <v>176</v>
@@ -9374,19 +9441,19 @@
         <v>73</v>
       </c>
       <c r="X39">
-        <v>-0.168</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="Y39">
         <v>126</v>
       </c>
       <c r="Z39">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
       <c r="AA39">
         <v>75</v>
       </c>
       <c r="AB39">
-        <v>299.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="AC39">
         <v>73</v>
@@ -9422,7 +9489,7 @@
         <v>160</v>
       </c>
       <c r="AN39">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="AO39">
         <v>195.5</v>
@@ -9434,7 +9501,7 @@
         <v>13.5</v>
       </c>
       <c r="AR39">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AS39">
         <v>120</v>
@@ -9446,7 +9513,7 @@
         <v>182</v>
       </c>
       <c r="AV39">
-        <v>64.65000000000001</v>
+        <v>64.650000000000006</v>
       </c>
       <c r="AW39">
         <v>154</v>
@@ -9482,7 +9549,7 @@
         <v>33.5</v>
       </c>
       <c r="BH39">
-        <v>1.695</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="BI39">
         <v>4.5</v>
@@ -9509,16 +9576,16 @@
         <v>2.166666666666667</v>
       </c>
       <c r="BQ39">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR39">
-        <v>69.91733333333333</v>
+        <v>69.917333333333332</v>
       </c>
       <c r="BS39">
-        <v>49.83333333333334</v>
+        <v>49.833333333333343</v>
       </c>
       <c r="BT39">
-        <v>2.082666666666668</v>
+        <v>2.0826666666666682</v>
       </c>
       <c r="BU39">
         <v>129.78</v>
@@ -9527,36 +9594,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:74">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40">
-        <v>-0.039</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="C40">
         <v>113</v>
       </c>
       <c r="D40">
-        <v>-0.396</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="E40">
         <v>181</v>
       </c>
       <c r="F40">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G40">
         <v>89</v>
       </c>
       <c r="H40">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I40">
         <v>107.5</v>
       </c>
       <c r="J40">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K40">
         <v>108.5</v>
@@ -9568,55 +9635,55 @@
         <v>120</v>
       </c>
       <c r="N40">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="O40">
         <v>6.5</v>
       </c>
       <c r="P40">
-        <v>-0.024</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="Q40">
         <v>124</v>
       </c>
       <c r="R40">
-        <v>-0.039</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="S40">
         <v>113</v>
       </c>
       <c r="T40">
-        <v>-0.396</v>
+        <v>-0.39600000000000002</v>
       </c>
       <c r="U40">
         <v>181</v>
       </c>
       <c r="V40">
-        <v>0.677</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="W40">
         <v>36</v>
       </c>
       <c r="X40">
-        <v>-0.409</v>
+        <v>-0.40899999999999997</v>
       </c>
       <c r="Y40">
         <v>151</v>
       </c>
       <c r="Z40">
-        <v>282.9</v>
+        <v>282.89999999999998</v>
       </c>
       <c r="AA40">
         <v>186</v>
       </c>
       <c r="AB40">
-        <v>286.4</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="AC40">
         <v>188</v>
       </c>
       <c r="AD40">
-        <v>65.81999999999999</v>
+        <v>65.819999999999993</v>
       </c>
       <c r="AE40">
         <v>27</v>
@@ -9658,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="AR40">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AS40">
         <v>166.5</v>
@@ -9736,13 +9803,13 @@
         <v>114</v>
       </c>
       <c r="BR40">
-        <v>70.71225</v>
+        <v>70.712249999999997</v>
       </c>
       <c r="BS40">
         <v>53</v>
       </c>
       <c r="BT40">
-        <v>1.287750000000003</v>
+        <v>1.2877500000000031</v>
       </c>
       <c r="BU40">
         <v>127.24</v>
@@ -9751,30 +9818,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:74">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B41">
-        <v>-0.08699999999999999</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="C41">
         <v>130</v>
       </c>
       <c r="D41">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E41">
         <v>31.5</v>
       </c>
       <c r="F41">
-        <v>0.327</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G41">
         <v>20</v>
       </c>
       <c r="H41">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="I41">
         <v>26.5</v>
@@ -9786,13 +9853,13 @@
         <v>81.5</v>
       </c>
       <c r="L41">
-        <v>-0.296</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="M41">
         <v>163</v>
       </c>
       <c r="N41">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="O41">
         <v>84</v>
@@ -9804,25 +9871,25 @@
         <v>64</v>
       </c>
       <c r="R41">
-        <v>-0.08699999999999999</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="S41">
         <v>130</v>
       </c>
       <c r="T41">
-        <v>0.355</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="U41">
         <v>31.5</v>
       </c>
       <c r="V41">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="W41">
         <v>54</v>
       </c>
       <c r="X41">
-        <v>0.6929999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="Y41">
         <v>52</v>
@@ -9888,7 +9955,7 @@
         <v>10.5</v>
       </c>
       <c r="AT41">
-        <v>66.73999999999999</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="AU41">
         <v>107</v>
@@ -9960,13 +10027,13 @@
         <v>33.5</v>
       </c>
       <c r="BR41">
-        <v>70.688</v>
+        <v>70.688000000000002</v>
       </c>
       <c r="BS41">
         <v>64</v>
       </c>
       <c r="BT41">
-        <v>1.311999999999998</v>
+        <v>1.3119999999999981</v>
       </c>
       <c r="BU41">
         <v>120.4</v>
@@ -9975,12 +10042,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:74">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B42">
-        <v>-0.352</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="C42">
         <v>172</v>
@@ -9992,13 +10059,13 @@
         <v>180</v>
       </c>
       <c r="F42">
-        <v>0.454</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="G42">
         <v>6</v>
       </c>
       <c r="H42">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I42">
         <v>107.5</v>
@@ -10010,25 +10077,25 @@
         <v>168</v>
       </c>
       <c r="L42">
-        <v>-0.408</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="M42">
         <v>173</v>
       </c>
       <c r="N42">
-        <v>0.6809999999999999</v>
+        <v>0.68099999999999994</v>
       </c>
       <c r="O42">
         <v>8</v>
       </c>
       <c r="P42">
-        <v>0.6859999999999999</v>
+        <v>0.68599999999999994</v>
       </c>
       <c r="Q42">
         <v>13</v>
       </c>
       <c r="R42">
-        <v>-0.352</v>
+        <v>-0.35199999999999998</v>
       </c>
       <c r="S42">
         <v>172</v>
@@ -10040,13 +10107,13 @@
         <v>180</v>
       </c>
       <c r="V42">
-        <v>0.392</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="W42">
         <v>63</v>
       </c>
       <c r="X42">
-        <v>-0.061</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="Y42">
         <v>114</v>
@@ -10148,13 +10215,13 @@
         <v>195</v>
       </c>
       <c r="BF42">
-        <v>1.735</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="BG42">
         <v>30.5</v>
       </c>
       <c r="BH42">
-        <v>1.727</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="BI42">
         <v>27</v>
@@ -10184,13 +10251,13 @@
         <v>33.5</v>
       </c>
       <c r="BR42">
-        <v>70.59999999999999</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="BS42">
         <v>56</v>
       </c>
       <c r="BT42">
-        <v>1.400000000000006</v>
+        <v>1.4000000000000059</v>
       </c>
       <c r="BU42">
         <v>114.59</v>
@@ -10199,30 +10266,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:74">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B43">
-        <v>-0.075</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="C43">
         <v>127</v>
       </c>
       <c r="D43">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="E43">
         <v>66</v>
       </c>
       <c r="F43">
-        <v>0.305</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G43">
         <v>23</v>
       </c>
       <c r="H43">
-        <v>0.3779999999999999</v>
+        <v>0.37799999999999989</v>
       </c>
       <c r="I43">
         <v>18</v>
@@ -10240,43 +10307,43 @@
         <v>85</v>
       </c>
       <c r="N43">
-        <v>-0.079</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="O43">
         <v>123</v>
       </c>
       <c r="P43">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="Q43">
         <v>97</v>
       </c>
       <c r="R43">
-        <v>-0.075</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="S43">
         <v>127</v>
       </c>
       <c r="T43">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="U43">
         <v>66</v>
       </c>
       <c r="V43">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="W43">
         <v>88</v>
       </c>
       <c r="X43">
-        <v>0.8090000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="Y43">
         <v>42</v>
       </c>
       <c r="Z43">
-        <v>298.1</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="AA43">
         <v>87.5</v>
@@ -10336,13 +10403,13 @@
         <v>63</v>
       </c>
       <c r="AT43">
-        <v>65.54000000000001</v>
+        <v>65.540000000000006</v>
       </c>
       <c r="AU43">
         <v>136</v>
       </c>
       <c r="AV43">
-        <v>68.31999999999999</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="AW43">
         <v>53</v>
@@ -10408,13 +10475,13 @@
         <v>33.5</v>
       </c>
       <c r="BR43">
-        <v>71.00766666666665</v>
+        <v>71.007666666666651</v>
       </c>
       <c r="BS43">
         <v>43</v>
       </c>
       <c r="BT43">
-        <v>0.9923333333333488</v>
+        <v>0.99233333333334883</v>
       </c>
       <c r="BU43">
         <v>114.34</v>
@@ -10423,42 +10490,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:74">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B44">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="C44">
         <v>124</v>
       </c>
       <c r="D44">
-        <v>-0.387</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="E44">
         <v>179</v>
       </c>
       <c r="F44">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="G44">
         <v>70</v>
       </c>
       <c r="H44">
-        <v>0.274</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="I44">
         <v>39</v>
       </c>
       <c r="J44">
-        <v>-0.119</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="K44">
         <v>123</v>
       </c>
       <c r="L44">
-        <v>-0.415</v>
+        <v>-0.41499999999999998</v>
       </c>
       <c r="M44">
         <v>175</v>
@@ -10476,25 +10543,25 @@
         <v>4</v>
       </c>
       <c r="R44">
-        <v>-0.073</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="S44">
         <v>124</v>
       </c>
       <c r="T44">
-        <v>-0.387</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="U44">
         <v>179</v>
       </c>
       <c r="V44">
-        <v>0.397</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="W44">
         <v>62</v>
       </c>
       <c r="X44">
-        <v>0.472</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="Y44">
         <v>71</v>
@@ -10518,7 +10585,7 @@
         <v>4</v>
       </c>
       <c r="AF44">
-        <v>72.70999999999999</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="AG44">
         <v>1</v>
@@ -10572,7 +10639,7 @@
         <v>144</v>
       </c>
       <c r="AX44">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="AY44">
         <v>3</v>
@@ -10602,7 +10669,7 @@
         <v>33.5</v>
       </c>
       <c r="BH44">
-        <v>1.705</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="BI44">
         <v>10</v>
@@ -10632,13 +10699,13 @@
         <v>114</v>
       </c>
       <c r="BR44">
-        <v>71.593</v>
+        <v>71.593000000000004</v>
       </c>
       <c r="BS44">
         <v>143</v>
       </c>
       <c r="BT44">
-        <v>0.4069999999999965</v>
+        <v>0.40699999999999648</v>
       </c>
       <c r="BU44">
         <v>112.37</v>
@@ -10647,12 +10714,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:74">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B45">
-        <v>-0.279</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="C45">
         <v>165</v>
@@ -10670,25 +10737,25 @@
         <v>19</v>
       </c>
       <c r="H45">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I45">
         <v>29</v>
       </c>
       <c r="J45">
-        <v>0.08199999999999999</v>
+        <v>8.199999999999999E-2</v>
       </c>
       <c r="K45">
         <v>97</v>
       </c>
       <c r="L45">
-        <v>0.404</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="M45">
         <v>43</v>
       </c>
       <c r="N45">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O45">
         <v>105</v>
@@ -10700,7 +10767,7 @@
         <v>65</v>
       </c>
       <c r="R45">
-        <v>-0.279</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="S45">
         <v>165</v>
@@ -10712,25 +10779,25 @@
         <v>162</v>
       </c>
       <c r="V45">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="W45">
         <v>99</v>
       </c>
       <c r="X45">
-        <v>0.768</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="Y45">
         <v>45.5</v>
       </c>
       <c r="Z45">
-        <v>301.6</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="AA45">
         <v>56.5</v>
       </c>
       <c r="AB45">
-        <v>296.6</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="AC45">
         <v>99</v>
@@ -10778,7 +10845,7 @@
         <v>47</v>
       </c>
       <c r="AR45">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS45">
         <v>81</v>
@@ -10826,7 +10893,7 @@
         <v>15</v>
       </c>
       <c r="BH45">
-        <v>1.727</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="BI45">
         <v>27</v>
@@ -10856,13 +10923,13 @@
         <v>14.5</v>
       </c>
       <c r="BR45">
-        <v>70.37725</v>
+        <v>70.377250000000004</v>
       </c>
       <c r="BS45">
         <v>54.375</v>
       </c>
       <c r="BT45">
-        <v>1.622749999999996</v>
+        <v>1.6227499999999959</v>
       </c>
       <c r="BU45">
         <v>112.04</v>
@@ -10871,9 +10938,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:74">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>0.159</v>
@@ -10882,13 +10949,13 @@
         <v>70</v>
       </c>
       <c r="D46">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E46">
         <v>94</v>
       </c>
       <c r="F46">
-        <v>0.08900000000000001</v>
+        <v>8.900000000000001E-2</v>
       </c>
       <c r="G46">
         <v>73</v>
@@ -10900,19 +10967,19 @@
         <v>52</v>
       </c>
       <c r="J46">
-        <v>-0.4379999999999999</v>
+        <v>-0.43799999999999989</v>
       </c>
       <c r="K46">
         <v>175.5</v>
       </c>
       <c r="L46">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="M46">
         <v>103</v>
       </c>
       <c r="N46">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="O46">
         <v>92</v>
@@ -10930,7 +10997,7 @@
         <v>70</v>
       </c>
       <c r="T46">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="U46">
         <v>94</v>
@@ -10996,7 +11063,7 @@
         <v>21</v>
       </c>
       <c r="AP46">
-        <v>4.52</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AQ46">
         <v>7.5</v>
@@ -11014,7 +11081,7 @@
         <v>119</v>
       </c>
       <c r="AV46">
-        <v>67.81999999999999</v>
+        <v>67.819999999999993</v>
       </c>
       <c r="AW46">
         <v>70</v>
@@ -11080,7 +11147,7 @@
         <v>33.5</v>
       </c>
       <c r="BR46">
-        <v>70.40899999999999</v>
+        <v>70.408999999999992</v>
       </c>
       <c r="BS46">
         <v>49</v>
@@ -11095,30 +11162,30 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:74">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B47">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C47">
         <v>86</v>
       </c>
       <c r="D47">
-        <v>-0.038</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E47">
         <v>119.5</v>
       </c>
       <c r="F47">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="G47">
         <v>76.5</v>
       </c>
       <c r="H47">
-        <v>-0.338</v>
+        <v>-0.33800000000000002</v>
       </c>
       <c r="I47">
         <v>191</v>
@@ -11136,25 +11203,25 @@
         <v>17</v>
       </c>
       <c r="N47">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="O47">
         <v>39</v>
       </c>
       <c r="P47">
-        <v>0.639</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="Q47">
         <v>17</v>
       </c>
       <c r="R47">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="S47">
         <v>86</v>
       </c>
       <c r="T47">
-        <v>-0.038</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="U47">
         <v>119.5</v>
@@ -11166,7 +11233,7 @@
         <v>38</v>
       </c>
       <c r="X47">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="Y47">
         <v>35</v>
@@ -11178,7 +11245,7 @@
         <v>42</v>
       </c>
       <c r="AB47">
-        <v>303.6</v>
+        <v>303.60000000000002</v>
       </c>
       <c r="AC47">
         <v>39</v>
@@ -11226,7 +11293,7 @@
         <v>34</v>
       </c>
       <c r="AR47">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS47">
         <v>81</v>
@@ -11268,7 +11335,7 @@
         <v>186</v>
       </c>
       <c r="BF47">
-        <v>1.753</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="BG47">
         <v>70.5</v>
@@ -11304,13 +11371,13 @@
         <v>65</v>
       </c>
       <c r="BR47">
-        <v>70.714</v>
+        <v>70.713999999999999</v>
       </c>
       <c r="BS47">
         <v>68</v>
       </c>
       <c r="BT47">
-        <v>1.286000000000001</v>
+        <v>1.2860000000000009</v>
       </c>
       <c r="BU47">
         <v>110.93</v>
@@ -11319,30 +11386,30 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:74">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B48">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C48">
         <v>72</v>
       </c>
       <c r="D48">
-        <v>0.481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E48">
         <v>20</v>
       </c>
       <c r="F48">
-        <v>0.632</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="I48">
         <v>45</v>
@@ -11354,7 +11421,7 @@
         <v>133</v>
       </c>
       <c r="L48">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M48">
         <v>109</v>
@@ -11366,31 +11433,31 @@
         <v>62</v>
       </c>
       <c r="P48">
-        <v>0.06900000000000001</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="Q48">
         <v>98</v>
       </c>
       <c r="R48">
-        <v>0.146</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="S48">
         <v>72</v>
       </c>
       <c r="T48">
-        <v>0.481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="U48">
         <v>20</v>
       </c>
       <c r="V48">
-        <v>0.843</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="W48">
         <v>22</v>
       </c>
       <c r="X48">
-        <v>0.8109999999999999</v>
+        <v>0.81099999999999994</v>
       </c>
       <c r="Y48">
         <v>41</v>
@@ -11402,7 +11469,7 @@
         <v>74</v>
       </c>
       <c r="AB48">
-        <v>300.6</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="AC48">
         <v>62</v>
@@ -11480,7 +11547,7 @@
         <v>33.5</v>
       </c>
       <c r="BB48">
-        <v>65.48999999999999</v>
+        <v>65.489999999999995</v>
       </c>
       <c r="BC48">
         <v>2</v>
@@ -11498,7 +11565,7 @@
         <v>54</v>
       </c>
       <c r="BH48">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="BI48">
         <v>163</v>
@@ -11528,13 +11595,13 @@
         <v>65</v>
       </c>
       <c r="BR48">
-        <v>70.53175</v>
+        <v>70.531750000000002</v>
       </c>
       <c r="BS48">
         <v>29.25</v>
       </c>
       <c r="BT48">
-        <v>1.468249999999998</v>
+        <v>1.4682499999999981</v>
       </c>
       <c r="BU48">
         <v>106.27</v>
@@ -11543,9 +11610,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:74">
+    <row r="49" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>0.158</v>
@@ -11560,37 +11627,37 @@
         <v>142</v>
       </c>
       <c r="F49">
-        <v>0.401</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G49">
         <v>10</v>
       </c>
       <c r="H49">
-        <v>-0.013</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="I49">
         <v>125</v>
       </c>
       <c r="J49">
-        <v>-0.5539999999999999</v>
+        <v>-0.55399999999999994</v>
       </c>
       <c r="K49">
         <v>182</v>
       </c>
       <c r="L49">
-        <v>0.5660000000000001</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="M49">
         <v>22</v>
       </c>
       <c r="N49">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O49">
         <v>99.5</v>
       </c>
       <c r="P49">
-        <v>0.389</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="Q49">
         <v>48.5</v>
@@ -11608,13 +11675,13 @@
         <v>142</v>
       </c>
       <c r="V49">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="W49">
         <v>110</v>
       </c>
       <c r="X49">
-        <v>0.8129999999999999</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="Y49">
         <v>40</v>
@@ -11626,7 +11693,7 @@
         <v>53.5</v>
       </c>
       <c r="AB49">
-        <v>298.9</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="AC49">
         <v>77</v>
@@ -11668,7 +11735,7 @@
         <v>204.5</v>
       </c>
       <c r="AP49">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AQ49">
         <v>117</v>
@@ -11722,7 +11789,7 @@
         <v>90</v>
       </c>
       <c r="BH49">
-        <v>1.767</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="BI49">
         <v>115.5</v>
@@ -11749,16 +11816,16 @@
         <v>2.166666666666667</v>
       </c>
       <c r="BQ49">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR49">
-        <v>71.062</v>
+        <v>71.061999999999998</v>
       </c>
       <c r="BS49">
         <v>94</v>
       </c>
       <c r="BT49">
-        <v>0.9380000000000024</v>
+        <v>0.93800000000000239</v>
       </c>
       <c r="BU49">
         <v>104.05</v>
@@ -11767,18 +11834,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:74">
+    <row r="50" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C50">
         <v>93</v>
       </c>
       <c r="D50">
-        <v>-0.527</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="E50">
         <v>197</v>
@@ -11790,19 +11857,19 @@
         <v>160</v>
       </c>
       <c r="H50">
-        <v>-0.091</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="I50">
         <v>147</v>
       </c>
       <c r="J50">
-        <v>0.601</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="K50">
         <v>10</v>
       </c>
       <c r="L50">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="M50">
         <v>95</v>
@@ -11814,37 +11881,37 @@
         <v>38</v>
       </c>
       <c r="P50">
-        <v>-0.368</v>
+        <v>-0.36799999999999999</v>
       </c>
       <c r="Q50">
         <v>173</v>
       </c>
       <c r="R50">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="S50">
         <v>93</v>
       </c>
       <c r="T50">
-        <v>-0.527</v>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="U50">
         <v>197</v>
       </c>
       <c r="V50">
-        <v>0.7829999999999999</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="W50">
         <v>26</v>
       </c>
       <c r="X50">
-        <v>-0.887</v>
+        <v>-0.88700000000000001</v>
       </c>
       <c r="Y50">
         <v>184</v>
       </c>
       <c r="Z50">
-        <v>305.4</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="AA50">
         <v>30.5</v>
@@ -11886,7 +11953,7 @@
         <v>89.5</v>
       </c>
       <c r="AN50">
-        <v>4.14</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="AO50">
         <v>208.5</v>
@@ -11940,13 +12007,13 @@
         <v>193</v>
       </c>
       <c r="BF50">
-        <v>1.753</v>
+        <v>1.7529999999999999</v>
       </c>
       <c r="BG50">
         <v>70.5</v>
       </c>
       <c r="BH50">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="BI50">
         <v>163</v>
@@ -11973,16 +12040,16 @@
         <v>2.166666666666667</v>
       </c>
       <c r="BQ50">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR50">
-        <v>72.34350000000001</v>
+        <v>72.343500000000006</v>
       </c>
       <c r="BS50">
         <v>126.25</v>
       </c>
       <c r="BT50">
-        <v>-0.3435000000000059</v>
+        <v>-0.34350000000000591</v>
       </c>
       <c r="BU50">
         <v>101.37</v>
@@ -11991,9 +12058,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:74">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>-0.188</v>
@@ -12002,43 +12069,43 @@
         <v>154</v>
       </c>
       <c r="D51">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E51">
         <v>68</v>
       </c>
       <c r="F51">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G51">
         <v>83</v>
       </c>
       <c r="H51">
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I51">
         <v>59.5</v>
       </c>
       <c r="J51">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="K51">
         <v>78</v>
       </c>
       <c r="L51">
-        <v>-0.616</v>
+        <v>-0.61599999999999999</v>
       </c>
       <c r="M51">
         <v>194</v>
       </c>
       <c r="N51">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="O51">
         <v>6.5</v>
       </c>
       <c r="P51">
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="Q51">
         <v>62</v>
@@ -12050,19 +12117,19 @@
         <v>154</v>
       </c>
       <c r="T51">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="U51">
         <v>68</v>
       </c>
       <c r="V51">
-        <v>0.6890000000000001</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="W51">
         <v>35</v>
       </c>
       <c r="X51">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="Y51">
         <v>96</v>
@@ -12104,7 +12171,7 @@
         <v>121.5</v>
       </c>
       <c r="AL51">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AM51">
         <v>112.5</v>
@@ -12146,7 +12213,7 @@
         <v>34</v>
       </c>
       <c r="AZ51">
-        <v>66.26000000000001</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -12170,7 +12237,7 @@
         <v>5.5</v>
       </c>
       <c r="BH51">
-        <v>1.803</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="BI51">
         <v>185</v>
@@ -12200,10 +12267,10 @@
         <v>114</v>
       </c>
       <c r="BR51">
-        <v>71.29133333333333</v>
+        <v>71.291333333333327</v>
       </c>
       <c r="BS51">
-        <v>54.83333333333334</v>
+        <v>54.833333333333343</v>
       </c>
       <c r="BT51">
         <v>0.708666666666673</v>
@@ -12215,78 +12282,78 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:74">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B52">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E52">
         <v>15</v>
       </c>
       <c r="F52">
-        <v>-0.209</v>
+        <v>-0.20899999999999999</v>
       </c>
       <c r="G52">
         <v>159</v>
       </c>
       <c r="H52">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I52">
         <v>90.5</v>
       </c>
       <c r="J52">
-        <v>0.208</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K52">
         <v>69</v>
       </c>
       <c r="L52">
-        <v>0.476</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="M52">
         <v>34</v>
       </c>
       <c r="N52">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="O52">
         <v>91</v>
       </c>
       <c r="P52">
-        <v>-0.5710000000000001</v>
+        <v>-0.57100000000000006</v>
       </c>
       <c r="Q52">
         <v>191</v>
       </c>
       <c r="R52">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="S52">
         <v>7</v>
       </c>
       <c r="T52">
-        <v>0.528</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="U52">
         <v>15</v>
       </c>
       <c r="V52">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="W52">
         <v>30</v>
       </c>
       <c r="X52">
-        <v>0.525</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="Y52">
         <v>65</v>
@@ -12346,13 +12413,13 @@
         <v>79</v>
       </c>
       <c r="AR52">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AS52">
         <v>48</v>
       </c>
       <c r="AT52">
-        <v>67.68000000000001</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="AU52">
         <v>79.5</v>
@@ -12424,13 +12491,13 @@
         <v>33.5</v>
       </c>
       <c r="BR52">
-        <v>69.96666666666665</v>
+        <v>69.966666666666654</v>
       </c>
       <c r="BS52">
-        <v>23.83333333333333</v>
+        <v>23.833333333333329</v>
       </c>
       <c r="BT52">
-        <v>2.033333333333346</v>
+        <v>2.0333333333333461</v>
       </c>
       <c r="BU52">
         <v>99.5</v>
@@ -12439,24 +12506,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:74">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B53">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C53">
         <v>97</v>
       </c>
       <c r="D53">
-        <v>-0.019</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E53">
         <v>113.5</v>
       </c>
       <c r="F53">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -12468,7 +12535,7 @@
         <v>5</v>
       </c>
       <c r="J53">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="K53">
         <v>101.5</v>
@@ -12492,13 +12559,13 @@
         <v>187</v>
       </c>
       <c r="R53">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="S53">
         <v>97</v>
       </c>
       <c r="T53">
-        <v>-0.019</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="U53">
         <v>113.5</v>
@@ -12510,7 +12577,7 @@
         <v>91</v>
       </c>
       <c r="X53">
-        <v>-0.359</v>
+        <v>-0.35899999999999999</v>
       </c>
       <c r="Y53">
         <v>148</v>
@@ -12522,7 +12589,7 @@
         <v>146.5</v>
       </c>
       <c r="AB53">
-        <v>310.6</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="AC53">
         <v>12</v>
@@ -12576,7 +12643,7 @@
         <v>180.5</v>
       </c>
       <c r="AT53">
-        <v>65.79000000000001</v>
+        <v>65.790000000000006</v>
       </c>
       <c r="AU53">
         <v>129</v>
@@ -12612,13 +12679,13 @@
         <v>61.5</v>
       </c>
       <c r="BF53">
-        <v>1.775</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="BG53">
         <v>136.5</v>
       </c>
       <c r="BH53">
-        <v>1.812</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="BI53">
         <v>197</v>
@@ -12648,13 +12715,13 @@
         <v>65</v>
       </c>
       <c r="BR53">
-        <v>71.318</v>
+        <v>71.317999999999998</v>
       </c>
       <c r="BS53">
         <v>114</v>
       </c>
       <c r="BT53">
-        <v>0.6820000000000022</v>
+        <v>0.68200000000000216</v>
       </c>
       <c r="BU53">
         <v>95.06</v>
@@ -12663,12 +12730,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:74">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54">
-        <v>-0.004</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C54">
         <v>105.5</v>
@@ -12686,37 +12753,37 @@
         <v>152.5</v>
       </c>
       <c r="H54">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="I54">
         <v>62</v>
       </c>
       <c r="J54">
-        <v>-0.336</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="K54">
         <v>156.5</v>
       </c>
       <c r="L54">
-        <v>-0.539</v>
+        <v>-0.53900000000000003</v>
       </c>
       <c r="M54">
         <v>191</v>
       </c>
       <c r="N54">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="O54">
         <v>54</v>
       </c>
       <c r="P54">
-        <v>-0.288</v>
+        <v>-0.28799999999999998</v>
       </c>
       <c r="Q54">
         <v>165</v>
       </c>
       <c r="R54">
-        <v>-0.004</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="S54">
         <v>105.5</v>
@@ -12728,13 +12795,13 @@
         <v>37</v>
       </c>
       <c r="V54">
-        <v>-0.289</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="W54">
         <v>141</v>
       </c>
       <c r="X54">
-        <v>-0.351</v>
+        <v>-0.35099999999999998</v>
       </c>
       <c r="Y54">
         <v>147</v>
@@ -12746,7 +12813,7 @@
         <v>61</v>
       </c>
       <c r="AB54">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="AC54">
         <v>130.5</v>
@@ -12782,13 +12849,13 @@
         <v>175</v>
       </c>
       <c r="AN54">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AO54">
         <v>211.5</v>
       </c>
       <c r="AP54">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AQ54">
         <v>175</v>
@@ -12836,7 +12903,7 @@
         <v>46.5</v>
       </c>
       <c r="BF54">
-        <v>1.769</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="BG54">
         <v>121.5</v>
@@ -12872,13 +12939,13 @@
         <v>114</v>
       </c>
       <c r="BR54">
-        <v>71.571</v>
+        <v>71.570999999999998</v>
       </c>
       <c r="BS54">
         <v>139</v>
       </c>
       <c r="BT54">
-        <v>0.429000000000002</v>
+        <v>0.42900000000000199</v>
       </c>
       <c r="BU54">
         <v>84.39</v>
@@ -12887,12 +12954,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:74">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B55">
-        <v>0.9990000000000001</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -12904,7 +12971,7 @@
         <v>9</v>
       </c>
       <c r="F55">
-        <v>-0.293</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="G55">
         <v>179.5</v>
@@ -12916,7 +12983,7 @@
         <v>185</v>
       </c>
       <c r="J55">
-        <v>-0.143</v>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="K55">
         <v>131</v>
@@ -12928,19 +12995,19 @@
         <v>94</v>
       </c>
       <c r="N55">
-        <v>-0.173</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="O55">
         <v>136</v>
       </c>
       <c r="P55">
-        <v>-1.314</v>
+        <v>-1.3140000000000001</v>
       </c>
       <c r="Q55">
         <v>217</v>
       </c>
       <c r="R55">
-        <v>0.9990000000000001</v>
+        <v>0.99900000000000011</v>
       </c>
       <c r="S55">
         <v>2</v>
@@ -12958,7 +13025,7 @@
         <v>64</v>
       </c>
       <c r="X55">
-        <v>-0.892</v>
+        <v>-0.89200000000000002</v>
       </c>
       <c r="Y55">
         <v>185</v>
@@ -12970,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="AB55">
-        <v>316.6</v>
+        <v>316.60000000000002</v>
       </c>
       <c r="AC55">
         <v>4</v>
@@ -13012,13 +13079,13 @@
         <v>165.5</v>
       </c>
       <c r="AP55">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AQ55">
         <v>66.5</v>
       </c>
       <c r="AR55">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AS55">
         <v>81</v>
@@ -13060,13 +13127,13 @@
         <v>217</v>
       </c>
       <c r="BF55">
-        <v>1.775</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="BG55">
         <v>136.5</v>
       </c>
       <c r="BH55">
-        <v>1.828</v>
+        <v>1.8280000000000001</v>
       </c>
       <c r="BI55">
         <v>210</v>
@@ -13096,13 +13163,13 @@
         <v>114</v>
       </c>
       <c r="BR55">
-        <v>71.21899999999999</v>
+        <v>71.218999999999994</v>
       </c>
       <c r="BS55">
         <v>110</v>
       </c>
       <c r="BT55">
-        <v>0.7810000000000059</v>
+        <v>0.78100000000000591</v>
       </c>
       <c r="BU55">
         <v>77.55</v>
@@ -13111,9 +13178,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:74">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>-0.187</v>
@@ -13122,7 +13189,7 @@
         <v>153</v>
       </c>
       <c r="D56">
-        <v>-0.213</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="E56">
         <v>153</v>
@@ -13134,7 +13201,7 @@
         <v>109.5</v>
       </c>
       <c r="H56">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I56">
         <v>87</v>
@@ -13146,13 +13213,13 @@
         <v>127</v>
       </c>
       <c r="L56">
-        <v>-0.016</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="M56">
         <v>114</v>
       </c>
       <c r="N56">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="O56">
         <v>67</v>
@@ -13170,25 +13237,25 @@
         <v>153</v>
       </c>
       <c r="T56">
-        <v>-0.213</v>
+        <v>-0.21299999999999999</v>
       </c>
       <c r="U56">
         <v>153</v>
       </c>
       <c r="V56">
-        <v>-0.173</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="W56">
         <v>131</v>
       </c>
       <c r="X56">
-        <v>-0.004</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="Y56">
         <v>108</v>
       </c>
       <c r="Z56">
-        <v>288.4</v>
+        <v>288.39999999999998</v>
       </c>
       <c r="AA56">
         <v>165</v>
@@ -13200,7 +13267,7 @@
         <v>168</v>
       </c>
       <c r="AD56">
-        <v>65.40000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="AE56">
         <v>32</v>
@@ -13224,7 +13291,7 @@
         <v>55</v>
       </c>
       <c r="AL56">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AM56">
         <v>168.5</v>
@@ -13236,7 +13303,7 @@
         <v>131.5</v>
       </c>
       <c r="AP56">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="AQ56">
         <v>66.5</v>
@@ -13248,7 +13315,7 @@
         <v>137</v>
       </c>
       <c r="AT56">
-        <v>64.95999999999999</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="AU56">
         <v>154</v>
@@ -13290,7 +13357,7 @@
         <v>129.5</v>
       </c>
       <c r="BH56">
-        <v>1.759</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="BI56">
         <v>95.5</v>
@@ -13320,13 +13387,13 @@
         <v>114</v>
       </c>
       <c r="BR56">
-        <v>72.105</v>
+        <v>72.105000000000004</v>
       </c>
       <c r="BS56">
         <v>178</v>
       </c>
       <c r="BT56">
-        <v>-0.105000000000004</v>
+        <v>-0.10500000000000401</v>
       </c>
       <c r="BU56">
         <v>70.95</v>
@@ -13335,30 +13402,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:74">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B57">
-        <v>-0.117</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="C57">
         <v>138</v>
       </c>
       <c r="D57">
-        <v>-0.424</v>
+        <v>-0.42399999999999999</v>
       </c>
       <c r="E57">
         <v>188</v>
       </c>
       <c r="F57">
-        <v>-0.244</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="G57">
         <v>169</v>
       </c>
       <c r="H57">
-        <v>0.359</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="I57">
         <v>20</v>
@@ -13370,31 +13437,31 @@
         <v>141</v>
       </c>
       <c r="L57">
-        <v>-0.4379999999999999</v>
+        <v>-0.43799999999999989</v>
       </c>
       <c r="M57">
         <v>180</v>
       </c>
       <c r="N57">
-        <v>-0.573</v>
+        <v>-0.57299999999999995</v>
       </c>
       <c r="O57">
         <v>180</v>
       </c>
       <c r="P57">
-        <v>-0.002</v>
+        <v>-2E-3</v>
       </c>
       <c r="Q57">
         <v>120.5</v>
       </c>
       <c r="R57">
-        <v>-0.117</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="S57">
         <v>138</v>
       </c>
       <c r="T57">
-        <v>-0.424</v>
+        <v>-0.42399999999999999</v>
       </c>
       <c r="U57">
         <v>188</v>
@@ -13418,7 +13485,7 @@
         <v>134</v>
       </c>
       <c r="AB57">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="AC57">
         <v>166.5</v>
@@ -13478,7 +13545,7 @@
         <v>86</v>
       </c>
       <c r="AV57">
-        <v>65.34999999999999</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="AW57">
         <v>131</v>
@@ -13496,7 +13563,7 @@
         <v>38.5</v>
       </c>
       <c r="BB57">
-        <v>35.37</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="BC57">
         <v>187</v>
@@ -13544,13 +13611,13 @@
         <v>114</v>
       </c>
       <c r="BR57">
-        <v>71.742</v>
+        <v>71.742000000000004</v>
       </c>
       <c r="BS57">
         <v>157</v>
       </c>
       <c r="BT57">
-        <v>0.2579999999999956</v>
+        <v>0.25799999999999562</v>
       </c>
       <c r="BU57">
         <v>67.7</v>
@@ -13559,9 +13626,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:74">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>0.251</v>
@@ -13570,13 +13637,13 @@
         <v>46</v>
       </c>
       <c r="D58">
-        <v>0.09699999999999999</v>
+        <v>9.6999999999999989E-2</v>
       </c>
       <c r="E58">
         <v>82</v>
       </c>
       <c r="F58">
-        <v>-0.023</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G58">
         <v>101</v>
@@ -13594,13 +13661,13 @@
         <v>72</v>
       </c>
       <c r="L58">
-        <v>-0.021</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="M58">
         <v>117</v>
       </c>
       <c r="N58">
-        <v>-0.4970000000000001</v>
+        <v>-0.49700000000000011</v>
       </c>
       <c r="O58">
         <v>172</v>
@@ -13618,31 +13685,31 @@
         <v>46</v>
       </c>
       <c r="T58">
-        <v>0.09699999999999999</v>
+        <v>9.6999999999999989E-2</v>
       </c>
       <c r="U58">
         <v>82</v>
       </c>
       <c r="V58">
-        <v>-0.08199999999999999</v>
+        <v>-8.199999999999999E-2</v>
       </c>
       <c r="W58">
         <v>120</v>
       </c>
       <c r="X58">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Y58">
         <v>102</v>
       </c>
       <c r="Z58">
-        <v>302.1</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="AA58">
         <v>45.5</v>
       </c>
       <c r="AB58">
-        <v>295.6</v>
+        <v>295.60000000000002</v>
       </c>
       <c r="AC58">
         <v>107</v>
@@ -13654,7 +13721,7 @@
         <v>49.5</v>
       </c>
       <c r="AF58">
-        <v>68.68000000000001</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="AG58">
         <v>14</v>
@@ -13696,7 +13763,7 @@
         <v>94</v>
       </c>
       <c r="AT58">
-        <v>70.51000000000001</v>
+        <v>70.510000000000005</v>
       </c>
       <c r="AU58">
         <v>16.5</v>
@@ -13720,7 +13787,7 @@
         <v>127</v>
       </c>
       <c r="BB58">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="BC58">
         <v>190</v>
@@ -13738,7 +13805,7 @@
         <v>181.5</v>
       </c>
       <c r="BH58">
-        <v>1.795</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="BI58">
         <v>174</v>
@@ -13768,7 +13835,7 @@
         <v>114</v>
       </c>
       <c r="BR58">
-        <v>70.777</v>
+        <v>70.777000000000001</v>
       </c>
       <c r="BS58">
         <v>72.5</v>
@@ -13783,9 +13850,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:74">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>-0.02</v>
@@ -13794,7 +13861,7 @@
         <v>108</v>
       </c>
       <c r="D59">
-        <v>-0.588</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="E59">
         <v>202</v>
@@ -13806,7 +13873,7 @@
         <v>13</v>
       </c>
       <c r="H59">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I59">
         <v>110</v>
@@ -13818,19 +13885,19 @@
         <v>129</v>
       </c>
       <c r="L59">
-        <v>-0.068</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="M59">
         <v>123</v>
       </c>
       <c r="N59">
-        <v>-0.083</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="O59">
         <v>124.5</v>
       </c>
       <c r="P59">
-        <v>-0.119</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="Q59">
         <v>138</v>
@@ -13842,19 +13909,19 @@
         <v>108</v>
       </c>
       <c r="T59">
-        <v>-0.588</v>
+        <v>-0.58799999999999997</v>
       </c>
       <c r="U59">
         <v>202</v>
       </c>
       <c r="V59">
-        <v>0.147</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="W59">
         <v>97</v>
       </c>
       <c r="X59">
-        <v>-0.741</v>
+        <v>-0.74099999999999999</v>
       </c>
       <c r="Y59">
         <v>176</v>
@@ -13896,7 +13963,7 @@
         <v>171</v>
       </c>
       <c r="AL59">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AM59">
         <v>112.5</v>
@@ -13908,7 +13975,7 @@
         <v>185</v>
       </c>
       <c r="AP59">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="AQ59">
         <v>104.5</v>
@@ -13962,7 +14029,7 @@
         <v>58.5</v>
       </c>
       <c r="BH59">
-        <v>1.808</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="BI59">
         <v>190</v>
@@ -13989,16 +14056,16 @@
         <v>2.166666666666667</v>
       </c>
       <c r="BQ59">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR59">
-        <v>71.69924999999999</v>
+        <v>71.699249999999992</v>
       </c>
       <c r="BS59">
         <v>74.375</v>
       </c>
       <c r="BT59">
-        <v>0.3007500000000078</v>
+        <v>0.30075000000000779</v>
       </c>
       <c r="BU59">
         <v>62.96</v>
@@ -14007,72 +14074,72 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:74">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B60">
-        <v>-0.092</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="C60">
         <v>131</v>
       </c>
       <c r="D60">
-        <v>-0.077</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="E60">
         <v>134</v>
       </c>
       <c r="F60">
-        <v>-0.098</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="G60">
         <v>131</v>
       </c>
       <c r="H60">
-        <v>-0.014</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="I60">
         <v>126.5</v>
       </c>
       <c r="J60">
-        <v>0.287</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="K60">
         <v>53</v>
       </c>
       <c r="L60">
-        <v>0.199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="M60">
         <v>79</v>
       </c>
       <c r="N60">
-        <v>0.369</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="O60">
         <v>32</v>
       </c>
       <c r="P60">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="Q60">
         <v>11</v>
       </c>
       <c r="R60">
-        <v>-0.092</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="S60">
         <v>131</v>
       </c>
       <c r="T60">
-        <v>-0.077</v>
+        <v>-7.6999999999999999E-2</v>
       </c>
       <c r="U60">
         <v>134</v>
       </c>
       <c r="V60">
-        <v>0.466</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="W60">
         <v>53</v>
@@ -14084,7 +14151,7 @@
         <v>38.5</v>
       </c>
       <c r="Z60">
-        <v>285.9</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="AA60">
         <v>175</v>
@@ -14180,7 +14247,7 @@
         <v>15.5</v>
       </c>
       <c r="BF60">
-        <v>1.751</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="BG60">
         <v>67</v>
@@ -14216,10 +14283,10 @@
         <v>33.5</v>
       </c>
       <c r="BR60">
-        <v>71.83433333333333</v>
+        <v>71.834333333333333</v>
       </c>
       <c r="BS60">
-        <v>42.16666666666666</v>
+        <v>42.166666666666657</v>
       </c>
       <c r="BT60">
         <v>0.1656666666666666</v>
@@ -14231,9 +14298,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:74">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B61">
         <v>0.21</v>
@@ -14248,7 +14315,7 @@
         <v>51</v>
       </c>
       <c r="F61">
-        <v>-0.431</v>
+        <v>-0.43099999999999999</v>
       </c>
       <c r="G61">
         <v>191</v>
@@ -14260,7 +14327,7 @@
         <v>188</v>
       </c>
       <c r="J61">
-        <v>-0.4379999999999999</v>
+        <v>-0.43799999999999989</v>
       </c>
       <c r="K61">
         <v>175.5</v>
@@ -14278,7 +14345,7 @@
         <v>145</v>
       </c>
       <c r="P61">
-        <v>-0.5720000000000001</v>
+        <v>-0.57200000000000006</v>
       </c>
       <c r="Q61">
         <v>192</v>
@@ -14296,25 +14363,25 @@
         <v>51</v>
       </c>
       <c r="V61">
-        <v>-0.9009999999999999</v>
+        <v>-0.90099999999999991</v>
       </c>
       <c r="W61">
         <v>181</v>
       </c>
       <c r="X61">
-        <v>-0.899</v>
+        <v>-0.89900000000000002</v>
       </c>
       <c r="Y61">
         <v>186</v>
       </c>
       <c r="Z61">
-        <v>285.6</v>
+        <v>285.60000000000002</v>
       </c>
       <c r="AA61">
         <v>176</v>
       </c>
       <c r="AB61">
-        <v>292.9</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="AC61">
         <v>130.5</v>
@@ -14356,13 +14423,13 @@
         <v>165.5</v>
       </c>
       <c r="AP61">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AQ61">
         <v>152</v>
       </c>
       <c r="AR61">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AS61">
         <v>187</v>
@@ -14374,7 +14441,7 @@
         <v>168</v>
       </c>
       <c r="AV61">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="AW61">
         <v>88.5</v>
@@ -14404,7 +14471,7 @@
         <v>134.5</v>
       </c>
       <c r="BF61">
-        <v>1.824</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="BG61">
         <v>191</v>
@@ -14437,16 +14504,16 @@
         <v>2.166666666666667</v>
       </c>
       <c r="BQ61">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR61">
-        <v>72.85899999999999</v>
+        <v>72.858999999999995</v>
       </c>
       <c r="BS61">
         <v>210</v>
       </c>
       <c r="BT61">
-        <v>-0.8589999999999947</v>
+        <v>-0.85899999999999466</v>
       </c>
       <c r="BU61">
         <v>58.11</v>
@@ -14455,18 +14522,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:74">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B62">
-        <v>-0.258</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="C62">
         <v>163</v>
       </c>
       <c r="D62">
-        <v>-0.267</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="E62">
         <v>165</v>
@@ -14478,55 +14545,55 @@
         <v>134</v>
       </c>
       <c r="H62">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="I62">
         <v>85</v>
       </c>
       <c r="J62">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="K62">
         <v>56</v>
       </c>
       <c r="L62">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="M62">
         <v>59</v>
       </c>
       <c r="N62">
-        <v>-0.767</v>
+        <v>-0.76700000000000002</v>
       </c>
       <c r="O62">
         <v>188</v>
       </c>
       <c r="P62">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Q62">
         <v>100</v>
       </c>
       <c r="R62">
-        <v>-0.258</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="S62">
         <v>163</v>
       </c>
       <c r="T62">
-        <v>-0.267</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="U62">
         <v>165</v>
       </c>
       <c r="V62">
-        <v>-0.852</v>
+        <v>-0.85199999999999998</v>
       </c>
       <c r="W62">
         <v>178</v>
       </c>
       <c r="X62">
-        <v>0.227</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="Y62">
         <v>88</v>
@@ -14592,7 +14659,7 @@
         <v>158</v>
       </c>
       <c r="AT62">
-        <v>67.26000000000001</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="AU62">
         <v>87</v>
@@ -14652,10 +14719,10 @@
         <v>139</v>
       </c>
       <c r="BN62">
-        <v>2.696551724137931</v>
+        <v>2.6965517241379309</v>
       </c>
       <c r="BO62">
-        <v>78.06206896551724</v>
+        <v>78.062068965517241</v>
       </c>
       <c r="BP62">
         <v>2</v>
@@ -14664,13 +14731,13 @@
         <v>65</v>
       </c>
       <c r="BR62">
-        <v>70.892</v>
+        <v>70.891999999999996</v>
       </c>
       <c r="BS62">
         <v>82</v>
       </c>
       <c r="BT62">
-        <v>1.108000000000004</v>
+        <v>1.1080000000000041</v>
       </c>
       <c r="BU62">
         <v>55.24</v>
@@ -14679,18 +14746,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:74">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B63">
-        <v>-0.118</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="C63">
         <v>139</v>
       </c>
       <c r="D63">
-        <v>-0.061</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="E63">
         <v>129</v>
@@ -14714,7 +14781,7 @@
         <v>67</v>
       </c>
       <c r="L63">
-        <v>0.336</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="M63">
         <v>57</v>
@@ -14726,31 +14793,31 @@
         <v>76</v>
       </c>
       <c r="P63">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="Q63">
         <v>83.5</v>
       </c>
       <c r="R63">
-        <v>-0.118</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="S63">
         <v>139</v>
       </c>
       <c r="T63">
-        <v>-0.061</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="U63">
         <v>129</v>
       </c>
       <c r="V63">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="W63">
         <v>101</v>
       </c>
       <c r="X63">
-        <v>0.363</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="Y63">
         <v>76</v>
@@ -14822,7 +14889,7 @@
         <v>71</v>
       </c>
       <c r="AV63">
-        <v>74.06999999999999</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="AW63">
         <v>1</v>
@@ -14852,7 +14919,7 @@
         <v>48.5</v>
       </c>
       <c r="BF63">
-        <v>1.763</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="BG63">
         <v>99</v>
@@ -14888,13 +14955,13 @@
         <v>65</v>
       </c>
       <c r="BR63">
-        <v>69.97499999999999</v>
+        <v>69.974999999999994</v>
       </c>
       <c r="BS63">
         <v>29</v>
       </c>
       <c r="BT63">
-        <v>2.025000000000006</v>
+        <v>2.0250000000000061</v>
       </c>
       <c r="BU63">
         <v>46.92</v>
@@ -14903,42 +14970,42 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:74">
+    <row r="64" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B64">
-        <v>-0.353</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="C64">
         <v>173</v>
       </c>
       <c r="D64">
-        <v>-0.7120000000000001</v>
+        <v>-0.71200000000000008</v>
       </c>
       <c r="E64">
         <v>207</v>
       </c>
       <c r="F64">
-        <v>-0.061</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="G64">
         <v>117.5</v>
       </c>
       <c r="H64">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I64">
         <v>93</v>
       </c>
       <c r="J64">
-        <v>-0.293</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="K64">
         <v>148</v>
       </c>
       <c r="L64">
-        <v>-0.483</v>
+        <v>-0.48299999999999998</v>
       </c>
       <c r="M64">
         <v>185</v>
@@ -14950,25 +15017,25 @@
         <v>72</v>
       </c>
       <c r="P64">
-        <v>-0.09699999999999999</v>
+        <v>-9.6999999999999989E-2</v>
       </c>
       <c r="Q64">
         <v>135</v>
       </c>
       <c r="R64">
-        <v>-0.353</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="S64">
         <v>173</v>
       </c>
       <c r="T64">
-        <v>-0.7120000000000001</v>
+        <v>-0.71200000000000008</v>
       </c>
       <c r="U64">
         <v>207</v>
       </c>
       <c r="V64">
-        <v>-0.578</v>
+        <v>-0.57799999999999996</v>
       </c>
       <c r="W64">
         <v>162</v>
@@ -14986,7 +15053,7 @@
         <v>163</v>
       </c>
       <c r="AB64">
-        <v>287.6</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="AC64">
         <v>181</v>
@@ -15022,7 +15089,7 @@
         <v>89.5</v>
       </c>
       <c r="AN64">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AO64">
         <v>154</v>
@@ -15112,7 +15179,7 @@
         <v>114</v>
       </c>
       <c r="BR64">
-        <v>70.95999999999999</v>
+        <v>70.959999999999994</v>
       </c>
       <c r="BS64">
         <v>85</v>
@@ -15121,18 +15188,18 @@
         <v>1.040000000000006</v>
       </c>
       <c r="BU64">
-        <v>40.23</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="BV64">
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:74">
+    <row r="65" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B65">
-        <v>-0.909</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="C65">
         <v>192</v>
@@ -15144,31 +15211,31 @@
         <v>213</v>
       </c>
       <c r="F65">
-        <v>-0.031</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="G65">
         <v>104.5</v>
       </c>
       <c r="H65">
-        <v>-0.331</v>
+        <v>-0.33100000000000002</v>
       </c>
       <c r="I65">
         <v>189.5</v>
       </c>
       <c r="J65">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="K65">
         <v>27</v>
       </c>
       <c r="L65">
-        <v>-0.637</v>
+        <v>-0.63700000000000001</v>
       </c>
       <c r="M65">
         <v>196</v>
       </c>
       <c r="N65">
-        <v>-0.349</v>
+        <v>-0.34899999999999998</v>
       </c>
       <c r="O65">
         <v>159.5</v>
@@ -15180,7 +15247,7 @@
         <v>37</v>
       </c>
       <c r="R65">
-        <v>-0.909</v>
+        <v>-0.90900000000000003</v>
       </c>
       <c r="S65">
         <v>192</v>
@@ -15192,13 +15259,13 @@
         <v>213</v>
       </c>
       <c r="V65">
-        <v>-0.846</v>
+        <v>-0.84599999999999997</v>
       </c>
       <c r="W65">
         <v>177</v>
       </c>
       <c r="X65">
-        <v>-1.685</v>
+        <v>-1.6850000000000001</v>
       </c>
       <c r="Y65">
         <v>201</v>
@@ -15210,7 +15277,7 @@
         <v>89</v>
       </c>
       <c r="AB65">
-        <v>299.4</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="AC65">
         <v>73</v>
@@ -15222,7 +15289,7 @@
         <v>193</v>
       </c>
       <c r="AF65">
-        <v>39.66</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="AG65">
         <v>217</v>
@@ -15240,7 +15307,7 @@
         <v>162.5</v>
       </c>
       <c r="AL65">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="AM65">
         <v>190</v>
@@ -15300,7 +15367,7 @@
         <v>71</v>
       </c>
       <c r="BF65">
-        <v>1.765</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="BG65">
         <v>104.5</v>
@@ -15324,25 +15391,25 @@
         <v>208</v>
       </c>
       <c r="BN65">
-        <v>2.696551724137931</v>
+        <v>2.6965517241379309</v>
       </c>
       <c r="BO65">
-        <v>78.06206896551724</v>
+        <v>78.062068965517241</v>
       </c>
       <c r="BP65">
         <v>2.166666666666667</v>
       </c>
       <c r="BQ65">
-        <v>70.40873015873017</v>
+        <v>70.408730158730165</v>
       </c>
       <c r="BR65">
-        <v>71.66799999999999</v>
+        <v>71.667999999999992</v>
       </c>
       <c r="BS65">
         <v>75</v>
       </c>
       <c r="BT65">
-        <v>0.3320000000000078</v>
+        <v>0.33200000000000779</v>
       </c>
       <c r="BU65">
         <v>11.42</v>
@@ -15351,7 +15418,221 @@
         <v>477</v>
       </c>
     </row>
+    <row r="66" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66">
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="C66">
+        <v>163</v>
+      </c>
+      <c r="D66">
+        <v>-2E-3</v>
+      </c>
+      <c r="E66">
+        <v>113</v>
+      </c>
+      <c r="F66">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="G66">
+        <v>56</v>
+      </c>
+      <c r="H66">
+        <v>0.245</v>
+      </c>
+      <c r="I66">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <v>-0.104</v>
+      </c>
+      <c r="K66">
+        <v>134</v>
+      </c>
+      <c r="L66">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="M66">
+        <v>67</v>
+      </c>
+      <c r="N66">
+        <v>-0.76700000000000002</v>
+      </c>
+      <c r="O66">
+        <v>188</v>
+      </c>
+      <c r="P66">
+        <v>-0.108</v>
+      </c>
+      <c r="Q66">
+        <v>131</v>
+      </c>
+      <c r="R66">
+        <v>-0.85</v>
+      </c>
+      <c r="S66">
+        <v>124</v>
+      </c>
+      <c r="T66">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="U66">
+        <v>67</v>
+      </c>
+      <c r="V66">
+        <v>-0.85199999999999998</v>
+      </c>
+      <c r="W66">
+        <v>178</v>
+      </c>
+      <c r="X66">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>79</v>
+      </c>
+      <c r="Z66">
+        <v>287</v>
+      </c>
+      <c r="AA66">
+        <v>167</v>
+      </c>
+      <c r="AB66">
+        <v>296.3</v>
+      </c>
+      <c r="AC66">
+        <v>101</v>
+      </c>
+      <c r="AD66">
+        <v>60.26</v>
+      </c>
+      <c r="AE66">
+        <v>99</v>
+      </c>
+      <c r="AF66">
+        <v>61.11</v>
+      </c>
+      <c r="AG66">
+        <v>97</v>
+      </c>
+      <c r="AH66">
+        <v>3.05</v>
+      </c>
+      <c r="AI66">
+        <v>90</v>
+      </c>
+      <c r="AJ66">
+        <v>3.07</v>
+      </c>
+      <c r="AK66">
+        <v>100</v>
+      </c>
+      <c r="AL66">
+        <v>4.09</v>
+      </c>
+      <c r="AM66">
+        <v>185</v>
+      </c>
+      <c r="AN66">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AO66">
+        <v>71</v>
+      </c>
+      <c r="AP66">
+        <v>4.67</v>
+      </c>
+      <c r="AQ66">
+        <v>131</v>
+      </c>
+      <c r="AR66">
+        <v>4.7</v>
+      </c>
+      <c r="AS66">
+        <v>158</v>
+      </c>
+      <c r="AT66">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="AU66">
+        <v>87</v>
+      </c>
+      <c r="AV66">
+        <v>65.83</v>
+      </c>
+      <c r="AW66">
+        <v>95</v>
+      </c>
+      <c r="AX66">
+        <v>54.24</v>
+      </c>
+      <c r="AY66">
+        <v>173</v>
+      </c>
+      <c r="AZ66">
+        <v>60.37</v>
+      </c>
+      <c r="BA66">
+        <v>69</v>
+      </c>
+      <c r="BB66">
+        <v>46.24</v>
+      </c>
+      <c r="BC66">
+        <v>139</v>
+      </c>
+      <c r="BD66">
+        <v>52.5</v>
+      </c>
+      <c r="BE66">
+        <v>71</v>
+      </c>
+      <c r="BF66">
+        <v>1.798</v>
+      </c>
+      <c r="BG66">
+        <v>173</v>
+      </c>
+      <c r="BH66">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="BI66">
+        <v>140</v>
+      </c>
+      <c r="BJ66">
+        <v>164</v>
+      </c>
+      <c r="BK66">
+        <v>58</v>
+      </c>
+      <c r="BL66">
+        <v>175</v>
+      </c>
+      <c r="BM66">
+        <v>57</v>
+      </c>
+      <c r="BN66">
+        <v>1</v>
+      </c>
+      <c r="BO66">
+        <v>129</v>
+      </c>
+      <c r="BP66">
+        <v>1</v>
+      </c>
+      <c r="BQ66">
+        <v>114</v>
+      </c>
+      <c r="BR66">
+        <v>69.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>